--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E49366-2FF3-409C-8E42-89C6681D64E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C22B34-570C-439D-92D4-D27F5DB5A219}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5820" windowWidth="28800" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
+    <workbookView xWindow="-39585" yWindow="11130" windowWidth="21855" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="specs" sheetId="1" r:id="rId1"/>
+    <sheet name="performance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
   <si>
     <t>Bitstream sizes</t>
   </si>
@@ -103,13 +104,58 @@
   </si>
   <si>
     <t xml:space="preserve"> proportion of static-to-reconfigurable area is larger, memory savings can be realized"</t>
+  </si>
+  <si>
+    <t>inf/sec</t>
+  </si>
+  <si>
+    <t>LUT</t>
+  </si>
+  <si>
+    <t>BRAM</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>LUTRAM</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>BUFG</t>
+  </si>
+  <si>
+    <t>Recon (Total)</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>percent usage</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>percent of total design usage</t>
+  </si>
+  <si>
+    <t>Recon (Accelerator)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +179,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,10 +204,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -165,9 +219,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EDEE1-3369-479B-AE07-FACAD3ED1A6B}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,247 +555,1613 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="4"/>
+    <col min="13" max="13" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="O4" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
         <v>5568785</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
         <v>5568785</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
         <v>5568785</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>31001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>70560</v>
+      </c>
+      <c r="H7" s="4">
+        <v>43.935657999999997</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>31220</v>
+      </c>
+      <c r="L7" s="4">
+        <v>70560</v>
+      </c>
+      <c r="M7" s="11">
+        <f>K7/L7</f>
+        <v>0.44246031746031744</v>
+      </c>
+      <c r="O7">
+        <v>28191</v>
+      </c>
+      <c r="P7" s="11">
+        <f>O7/K7</f>
+        <v>0.90297885970531711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
         <v>5568785</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1412</v>
+      </c>
+      <c r="G8" s="4">
+        <v>28800</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4.9027776999999997</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>1426</v>
+      </c>
+      <c r="L8" s="4">
+        <v>28800</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" ref="M8:M16" si="0">K8/L8</f>
+        <v>4.9513888888888892E-2</v>
+      </c>
+      <c r="O8">
+        <v>1009</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" ref="P8:P49" si="1">O8/K8</f>
+        <v>0.70757363253856942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
         <v>5568785</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4">
+        <v>41182</v>
+      </c>
+      <c r="G9" s="4">
+        <v>141120</v>
+      </c>
+      <c r="H9" s="4">
+        <v>29.182255000000001</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <v>41360</v>
+      </c>
+      <c r="L9" s="4">
+        <v>141120</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.29308390022675734</v>
+      </c>
+      <c r="O9">
+        <v>37587</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.90877659574468084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4">
+        <v>124</v>
+      </c>
+      <c r="G10" s="4">
+        <v>216</v>
+      </c>
+      <c r="H10" s="4">
+        <v>57.407409999999999</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>124</v>
+      </c>
+      <c r="L10" s="4">
+        <v>216</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.57407407407407407</v>
+      </c>
+      <c r="O10">
+        <v>124</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4">
+        <v>360</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6.6666670000000003</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>24</v>
+      </c>
+      <c r="L11" s="4">
+        <v>360</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="O11">
+        <v>24</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>5568785</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>82</v>
+      </c>
+      <c r="H12" s="4">
+        <v>12.195122</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
+        <v>82</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13">
         <v>5755758</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>196</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.51020410000000005</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>196</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="0"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
         <v>5755758</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15">
         <v>5755758</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="J15" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16">
         <v>5755758</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45779</v>
+      </c>
+      <c r="G16" s="4">
+        <v>70560</v>
+      </c>
+      <c r="H16" s="4">
+        <v>64.879540000000006</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="4">
+        <v>46022</v>
+      </c>
+      <c r="L16" s="4">
+        <v>70560</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.65223922902494336</v>
+      </c>
+      <c r="O16">
+        <v>42993</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.93418365129720571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
         <v>5755758</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2308</v>
+      </c>
+      <c r="G17" s="4">
+        <v>28800</v>
+      </c>
+      <c r="H17" s="4">
+        <v>8.0138890000000007</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2322</v>
+      </c>
+      <c r="L17" s="4">
+        <v>28800</v>
+      </c>
+      <c r="M17" s="11">
+        <f>K17/L17</f>
+        <v>8.0625000000000002E-2</v>
+      </c>
+      <c r="O17">
+        <v>1905</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.82041343669250644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="4">
+        <v>53405</v>
+      </c>
+      <c r="G18" s="4">
+        <v>141120</v>
+      </c>
+      <c r="H18" s="4">
+        <v>37.843679999999999</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="4">
+        <v>53620</v>
+      </c>
+      <c r="L18" s="4">
+        <v>141120</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" ref="M18:M49" si="2">K18/L18</f>
+        <v>0.37996031746031744</v>
+      </c>
+      <c r="O18">
+        <v>49847</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="1"/>
+        <v>0.92963446475195821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="4">
+        <v>131.5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>216</v>
+      </c>
+      <c r="H19" s="4">
+        <v>60.879629999999999</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="4">
+        <v>131.5</v>
+      </c>
+      <c r="L19" s="4">
+        <v>216</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="2"/>
+        <v>0.60879629629629628</v>
+      </c>
+      <c r="O19">
+        <v>131.5</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="4">
+        <v>26</v>
+      </c>
+      <c r="G20" s="4">
+        <v>360</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7.2222223000000003</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="4">
+        <v>26</v>
+      </c>
+      <c r="L20" s="4">
+        <v>360</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="2"/>
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="O20">
+        <v>26</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
+        <v>82</v>
+      </c>
+      <c r="H21" s="4">
+        <v>12.195122</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="4">
+        <v>10</v>
+      </c>
+      <c r="L21" s="4">
+        <v>82</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="2"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>196</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.51020410000000005</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>196</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" si="2"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="4">
+        <v>39556</v>
+      </c>
+      <c r="G25" s="4">
+        <v>70560</v>
+      </c>
+      <c r="H25" s="4">
+        <v>56.060093000000002</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <v>39779</v>
+      </c>
+      <c r="L25" s="4">
+        <v>70560</v>
+      </c>
+      <c r="M25" s="11">
+        <f t="shared" si="2"/>
+        <v>0.56376133786848071</v>
+      </c>
+      <c r="O25">
+        <v>36750</v>
+      </c>
+      <c r="P25" s="11">
+        <f t="shared" si="1"/>
+        <v>0.92385429497976324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3716</v>
+      </c>
+      <c r="G26" s="4">
+        <v>28800</v>
+      </c>
+      <c r="H26" s="4">
+        <v>12.902779000000001</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26">
+        <v>3730</v>
+      </c>
+      <c r="L26" s="4">
+        <v>28800</v>
+      </c>
+      <c r="M26" s="11">
+        <f t="shared" si="2"/>
+        <v>0.1295138888888889</v>
+      </c>
+      <c r="O26">
+        <v>3313</v>
+      </c>
+      <c r="P26" s="11">
+        <f t="shared" si="1"/>
+        <v>0.88820375335120638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4">
+        <v>49811</v>
+      </c>
+      <c r="G27" s="4">
+        <v>141120</v>
+      </c>
+      <c r="H27" s="4">
+        <v>35.296909999999997</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27">
+        <v>50064</v>
+      </c>
+      <c r="L27" s="4">
+        <v>141120</v>
+      </c>
+      <c r="M27" s="11">
+        <f t="shared" si="2"/>
+        <v>0.35476190476190478</v>
+      </c>
+      <c r="O27">
+        <v>46291</v>
+      </c>
+      <c r="P27" s="11">
+        <f t="shared" si="1"/>
+        <v>0.92463646532438482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="4">
+        <v>154.5</v>
+      </c>
+      <c r="G28" s="4">
+        <v>216</v>
+      </c>
+      <c r="H28" s="4">
+        <v>71.527780000000007</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>154.5</v>
+      </c>
+      <c r="L28" s="4">
+        <v>216</v>
+      </c>
+      <c r="M28" s="11">
+        <f t="shared" si="2"/>
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="O28">
+        <v>154.5</v>
+      </c>
+      <c r="P28" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="4">
+        <v>32</v>
+      </c>
+      <c r="G29" s="4">
+        <v>360</v>
+      </c>
+      <c r="H29" s="4">
+        <v>8.8888890000000007</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>32</v>
+      </c>
+      <c r="L29" s="4">
+        <v>360</v>
+      </c>
+      <c r="M29" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="O29">
+        <v>32</v>
+      </c>
+      <c r="P29" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="4">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4">
+        <v>82</v>
+      </c>
+      <c r="H30" s="4">
+        <v>12.195122</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30" s="4">
+        <v>82</v>
+      </c>
+      <c r="M30" s="11">
+        <f t="shared" si="2"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>196</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.51020410000000005</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4">
+        <v>196</v>
+      </c>
+      <c r="M31" s="11">
+        <f t="shared" si="2"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="4">
+        <v>27231</v>
+      </c>
+      <c r="G34" s="4">
+        <v>70560</v>
+      </c>
+      <c r="H34" s="4">
+        <v>38.592686</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>31933</v>
+      </c>
+      <c r="L34" s="4">
+        <v>70560</v>
+      </c>
+      <c r="M34" s="11">
+        <f t="shared" si="2"/>
+        <v>0.45256519274376417</v>
+      </c>
+      <c r="O34">
+        <v>28904</v>
+      </c>
+      <c r="P34" s="11">
+        <f t="shared" si="1"/>
+        <v>0.90514514765289822</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1731</v>
+      </c>
+      <c r="G35" s="4">
+        <v>28800</v>
+      </c>
+      <c r="H35" s="4">
+        <v>6.0104164999999998</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35">
+        <v>1743</v>
+      </c>
+      <c r="L35" s="4">
+        <v>28800</v>
+      </c>
+      <c r="M35" s="11">
+        <f t="shared" si="2"/>
+        <v>6.0520833333333336E-2</v>
+      </c>
+      <c r="O35">
+        <v>1326</v>
+      </c>
+      <c r="P35" s="11">
+        <f t="shared" si="1"/>
+        <v>0.76075731497418242</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="4">
+        <v>30960</v>
+      </c>
+      <c r="G36" s="4">
+        <v>141120</v>
+      </c>
+      <c r="H36" s="4">
+        <v>21.938776000000001</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36">
+        <v>31193</v>
+      </c>
+      <c r="L36" s="4">
+        <v>141120</v>
+      </c>
+      <c r="M36" s="11">
+        <f t="shared" si="2"/>
+        <v>0.22103883219954648</v>
+      </c>
+      <c r="O36">
+        <v>27420</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="1"/>
+        <v>0.879043375116212</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="4">
+        <v>110</v>
+      </c>
+      <c r="G37" s="4">
+        <v>216</v>
+      </c>
+      <c r="H37" s="4">
+        <v>50.925930000000001</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37">
+        <v>110</v>
+      </c>
+      <c r="L37" s="4">
+        <v>216</v>
+      </c>
+      <c r="M37" s="11">
+        <f t="shared" si="2"/>
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="O37">
+        <v>110</v>
+      </c>
+      <c r="P37" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="4">
+        <v>4</v>
+      </c>
+      <c r="G38" s="4">
+        <v>360</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1.1111112000000001</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" s="4">
+        <v>360</v>
+      </c>
+      <c r="M38" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="4">
+        <v>10</v>
+      </c>
+      <c r="G39" s="4">
+        <v>82</v>
+      </c>
+      <c r="H39" s="4">
+        <v>12.195122</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="L39" s="4">
+        <v>82</v>
+      </c>
+      <c r="M39" s="11">
+        <f t="shared" si="2"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>196</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.51020410000000005</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="4">
+        <v>196</v>
+      </c>
+      <c r="M40" s="11">
+        <f t="shared" si="2"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="4">
+        <v>48086</v>
+      </c>
+      <c r="G43" s="4">
+        <v>70560</v>
+      </c>
+      <c r="H43" s="4">
+        <v>68.149090000000001</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>53433</v>
+      </c>
+      <c r="L43" s="4">
+        <v>70560</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7572704081632653</v>
+      </c>
+      <c r="O43">
+        <v>50404</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" si="1"/>
+        <v>0.94331218535362038</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2822</v>
+      </c>
+      <c r="G44" s="4">
+        <v>28800</v>
+      </c>
+      <c r="H44" s="4">
+        <v>9.7986109999999993</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44">
+        <v>2831</v>
+      </c>
+      <c r="L44" s="4">
+        <v>28800</v>
+      </c>
+      <c r="M44" s="11">
+        <f t="shared" si="2"/>
+        <v>9.8298611111111114E-2</v>
+      </c>
+      <c r="O44">
+        <v>2414</v>
+      </c>
+      <c r="P44" s="11">
+        <f t="shared" si="1"/>
+        <v>0.85270222536206286</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="4">
+        <v>35536</v>
+      </c>
+      <c r="G45" s="4">
+        <v>141120</v>
+      </c>
+      <c r="H45" s="4">
+        <v>25.181405999999999</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45">
+        <v>39857</v>
+      </c>
+      <c r="L45" s="4">
+        <v>141120</v>
+      </c>
+      <c r="M45" s="11">
+        <f t="shared" si="2"/>
+        <v>0.28243339002267576</v>
+      </c>
+      <c r="O45">
+        <v>36084</v>
+      </c>
+      <c r="P45" s="11">
+        <f t="shared" si="1"/>
+        <v>0.90533657826730563</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="4">
+        <v>110</v>
+      </c>
+      <c r="G46" s="4">
+        <v>216</v>
+      </c>
+      <c r="H46" s="4">
+        <v>50.925930000000001</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46">
+        <v>110</v>
+      </c>
+      <c r="L46" s="4">
+        <v>216</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="2"/>
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="O46">
+        <v>110</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="4">
+        <v>4</v>
+      </c>
+      <c r="G47" s="4">
+        <v>360</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1.1111112000000001</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47" s="4">
+        <v>360</v>
+      </c>
+      <c r="M47" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="4">
+        <v>10</v>
+      </c>
+      <c r="G48" s="4">
+        <v>82</v>
+      </c>
+      <c r="H48" s="4">
+        <v>12.195122</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48" s="4">
+        <v>82</v>
+      </c>
+      <c r="M48" s="11">
+        <f t="shared" si="2"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>196</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.51020410000000005</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4">
+        <v>196</v>
+      </c>
+      <c r="M49" s="11">
+        <f t="shared" si="2"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF2056F-DF7E-47B5-B622-DED286DC8D14}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C22B34-570C-439D-92D4-D27F5DB5A219}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5FEE50-CB6D-4F4B-A187-AB0EF26D47D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39585" yWindow="11130" windowWidth="21855" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
+    <workbookView xWindow="-28800" yWindow="5820" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="specs" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -219,15 +219,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +549,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,29 +560,29 @@
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="4"/>
-    <col min="13" max="13" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -604,26 +607,26 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="12"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="O4" s="10" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="O4" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -640,14 +643,14 @@
       <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -693,14 +696,14 @@
       <c r="L7" s="4">
         <v>70560</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="8">
         <f>K7/L7</f>
         <v>0.44246031746031744</v>
       </c>
       <c r="O7">
         <v>28191</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="13">
         <f>O7/K7</f>
         <v>0.90297885970531711</v>
       </c>
@@ -733,14 +736,14 @@
       <c r="L8" s="4">
         <v>28800</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="8">
         <f t="shared" ref="M8:M16" si="0">K8/L8</f>
         <v>4.9513888888888892E-2</v>
       </c>
       <c r="O8">
         <v>1009</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="13">
         <f t="shared" ref="P8:P49" si="1">O8/K8</f>
         <v>0.70757363253856942</v>
       </c>
@@ -773,14 +776,14 @@
       <c r="L9" s="4">
         <v>141120</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="8">
         <f t="shared" si="0"/>
         <v>0.29308390022675734</v>
       </c>
       <c r="O9">
         <v>37587</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="13">
         <f t="shared" si="1"/>
         <v>0.90877659574468084</v>
       </c>
@@ -807,23 +810,23 @@
       <c r="L10" s="4">
         <v>216</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="8">
         <f t="shared" si="0"/>
         <v>0.57407407407407407</v>
       </c>
       <c r="O10">
         <v>124</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="10"/>
       <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
@@ -845,14 +848,14 @@
       <c r="L11" s="4">
         <v>360</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="8">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="O11">
         <v>24</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -885,14 +888,14 @@
       <c r="L12" s="4">
         <v>82</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="8">
         <f t="shared" si="0"/>
         <v>0.12195121951219512</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -925,14 +928,14 @@
       <c r="L13" s="4">
         <v>196</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="8">
         <f t="shared" si="0"/>
         <v>5.1020408163265302E-3</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -948,6 +951,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="J14" s="4"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -956,14 +960,15 @@
       <c r="B15">
         <v>5755758</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -993,14 +998,14 @@
       <c r="L16" s="4">
         <v>70560</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="8">
         <f t="shared" si="0"/>
         <v>0.65223922902494336</v>
       </c>
       <c r="O16">
         <v>42993</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="13">
         <f t="shared" si="1"/>
         <v>0.93418365129720571</v>
       </c>
@@ -1033,14 +1038,14 @@
       <c r="L17" s="4">
         <v>28800</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="8">
         <f>K17/L17</f>
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="O17">
         <v>1905</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="13">
         <f t="shared" si="1"/>
         <v>0.82041343669250644</v>
       </c>
@@ -1067,25 +1072,25 @@
       <c r="L18" s="4">
         <v>141120</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="8">
         <f t="shared" ref="M18:M49" si="2">K18/L18</f>
         <v>0.37996031746031744</v>
       </c>
       <c r="O18">
         <v>49847</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="13">
         <f t="shared" si="1"/>
         <v>0.92963446475195821</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="5" t="s">
         <v>26</v>
       </c>
@@ -1107,25 +1112,25 @@
       <c r="L19" s="4">
         <v>216</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="8">
         <f t="shared" si="2"/>
         <v>0.60879629629629628</v>
       </c>
       <c r="O19">
         <v>131.5</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="5" t="s">
         <v>27</v>
       </c>
@@ -1147,25 +1152,25 @@
       <c r="L20" s="4">
         <v>360</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="8">
         <f t="shared" si="2"/>
         <v>7.2222222222222215E-2</v>
       </c>
       <c r="O20">
         <v>26</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1187,25 +1192,25 @@
       <c r="L21" s="4">
         <v>82</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="8">
         <f t="shared" si="2"/>
         <v>0.12195121951219512</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="4" t="s">
         <v>31</v>
       </c>
@@ -1227,49 +1232,51 @@
       <c r="L22" s="4">
         <v>196</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="8">
         <f t="shared" si="2"/>
         <v>5.1020408163265302E-3</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="5"/>
       <c r="J23" s="5"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="5" t="s">
         <v>25</v>
       </c>
@@ -1291,25 +1298,25 @@
       <c r="L25" s="4">
         <v>70560</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="8">
         <f t="shared" si="2"/>
         <v>0.56376133786848071</v>
       </c>
       <c r="O25">
         <v>36750</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="13">
         <f t="shared" si="1"/>
         <v>0.92385429497976324</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1331,25 +1338,25 @@
       <c r="L26" s="4">
         <v>28800</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="8">
         <f t="shared" si="2"/>
         <v>0.1295138888888889</v>
       </c>
       <c r="O26">
         <v>3313</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="13">
         <f t="shared" si="1"/>
         <v>0.88820375335120638</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1371,25 +1378,25 @@
       <c r="L27" s="4">
         <v>141120</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="8">
         <f t="shared" si="2"/>
         <v>0.35476190476190478</v>
       </c>
       <c r="O27">
         <v>46291</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="13">
         <f t="shared" si="1"/>
         <v>0.92463646532438482</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1411,25 +1418,25 @@
       <c r="L28" s="4">
         <v>216</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="8">
         <f t="shared" si="2"/>
         <v>0.71527777777777779</v>
       </c>
       <c r="O28">
         <v>154.5</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1451,14 +1458,14 @@
       <c r="L29" s="4">
         <v>360</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="8">
         <f t="shared" si="2"/>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="O29">
         <v>32</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1485,14 +1492,14 @@
       <c r="L30" s="4">
         <v>82</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="8">
         <f t="shared" si="2"/>
         <v>0.12195121951219512</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1519,20 +1526,21 @@
       <c r="L31" s="4">
         <v>196</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="8">
         <f t="shared" si="2"/>
         <v>5.1020408163265302E-3</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J32" s="4"/>
+      <c r="P32" s="13"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
@@ -1541,6 +1549,7 @@
       <c r="J33" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="P33" s="13"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
@@ -1564,14 +1573,14 @@
       <c r="L34" s="4">
         <v>70560</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="8">
         <f t="shared" si="2"/>
         <v>0.45256519274376417</v>
       </c>
       <c r="O34">
         <v>28904</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="13">
         <f t="shared" si="1"/>
         <v>0.90514514765289822</v>
       </c>
@@ -1598,14 +1607,14 @@
       <c r="L35" s="4">
         <v>28800</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="8">
         <f t="shared" si="2"/>
         <v>6.0520833333333336E-2</v>
       </c>
       <c r="O35">
         <v>1326</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="13">
         <f t="shared" si="1"/>
         <v>0.76075731497418242</v>
       </c>
@@ -1632,14 +1641,14 @@
       <c r="L36" s="4">
         <v>141120</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="8">
         <f t="shared" si="2"/>
         <v>0.22103883219954648</v>
       </c>
       <c r="O36">
         <v>27420</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="13">
         <f t="shared" si="1"/>
         <v>0.879043375116212</v>
       </c>
@@ -1666,14 +1675,14 @@
       <c r="L37" s="4">
         <v>216</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="8">
         <f t="shared" si="2"/>
         <v>0.5092592592592593</v>
       </c>
       <c r="O37">
         <v>110</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1700,14 +1709,14 @@
       <c r="L38" s="4">
         <v>360</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="8">
         <f t="shared" si="2"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="O38">
         <v>4</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1734,14 +1743,14 @@
       <c r="L39" s="4">
         <v>82</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="8">
         <f t="shared" si="2"/>
         <v>0.12195121951219512</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1768,20 +1777,21 @@
       <c r="L40" s="4">
         <v>196</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="8">
         <f t="shared" si="2"/>
         <v>5.1020408163265302E-3</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="J41" s="4"/>
+      <c r="P41" s="13"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
@@ -1790,6 +1800,7 @@
       <c r="J42" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="P42" s="13"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
@@ -1813,14 +1824,14 @@
       <c r="L43" s="4">
         <v>70560</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="8">
         <f t="shared" si="2"/>
         <v>0.7572704081632653</v>
       </c>
       <c r="O43">
         <v>50404</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P43" s="13">
         <f t="shared" si="1"/>
         <v>0.94331218535362038</v>
       </c>
@@ -1847,14 +1858,14 @@
       <c r="L44" s="4">
         <v>28800</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="8">
         <f t="shared" si="2"/>
         <v>9.8298611111111114E-2</v>
       </c>
       <c r="O44">
         <v>2414</v>
       </c>
-      <c r="P44" s="11">
+      <c r="P44" s="13">
         <f t="shared" si="1"/>
         <v>0.85270222536206286</v>
       </c>
@@ -1881,14 +1892,14 @@
       <c r="L45" s="4">
         <v>141120</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="8">
         <f t="shared" si="2"/>
         <v>0.28243339002267576</v>
       </c>
       <c r="O45">
         <v>36084</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P45" s="13">
         <f t="shared" si="1"/>
         <v>0.90533657826730563</v>
       </c>
@@ -1915,14 +1926,14 @@
       <c r="L46" s="4">
         <v>216</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="8">
         <f t="shared" si="2"/>
         <v>0.5092592592592593</v>
       </c>
       <c r="O46">
         <v>110</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P46" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1949,14 +1960,14 @@
       <c r="L47" s="4">
         <v>360</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="8">
         <f t="shared" si="2"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1983,14 +1994,14 @@
       <c r="L48" s="4">
         <v>82</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M48" s="8">
         <f t="shared" si="2"/>
         <v>0.12195121951219512</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P48" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2017,37 +2028,37 @@
       <c r="L49" s="4">
         <v>196</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M49" s="8">
         <f t="shared" si="2"/>
         <v>5.1020408163265302E-3</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49" s="11">
+      <c r="P49" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2076,10 +2087,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2116,10 +2127,10 @@
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">

--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5FEE50-CB6D-4F4B-A187-AB0EF26D47D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F67FE-6309-4258-9EF8-BE0B0EE220F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5820" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
+    <workbookView xWindow="0" yWindow="5715" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="specs" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -223,13 +223,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -549,7 +551,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,24 +567,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -610,22 +612,22 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="B4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
       <c r="O4" s="7" t="s">
         <v>38</v>
       </c>
@@ -634,9 +636,6 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>5568785</v>
-      </c>
       <c r="K5" s="1" t="s">
         <v>33</v>
       </c>
@@ -658,9 +657,6 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>5568785</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
@@ -672,293 +668,216 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>5568785</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4">
-        <v>31001</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="10">
+        <v>27737</v>
+      </c>
+      <c r="G7" s="10">
         <v>70560</v>
       </c>
-      <c r="H7" s="4">
-        <v>43.935657999999997</v>
+      <c r="H7" s="10">
+        <v>39.309806999999999</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K7">
-        <v>31220</v>
-      </c>
-      <c r="L7" s="4">
-        <v>70560</v>
-      </c>
-      <c r="M7" s="8">
+      <c r="L7" s="4"/>
+      <c r="M7" s="8" t="e">
         <f>K7/L7</f>
-        <v>0.44246031746031744</v>
-      </c>
-      <c r="O7">
-        <v>28191</v>
-      </c>
-      <c r="P7" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="12" t="e">
         <f>O7/K7</f>
-        <v>0.90297885970531711</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>5568785</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4">
-        <v>1412</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="10">
+        <v>1525</v>
+      </c>
+      <c r="G8" s="10">
         <v>28800</v>
       </c>
-      <c r="H8" s="4">
-        <v>4.9027776999999997</v>
+      <c r="H8" s="10">
+        <v>5.2951389999999998</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K8">
-        <v>1426</v>
-      </c>
-      <c r="L8" s="4">
-        <v>28800</v>
-      </c>
-      <c r="M8" s="8">
+      <c r="L8" s="4"/>
+      <c r="M8" s="8" t="e">
         <f t="shared" ref="M8:M16" si="0">K8/L8</f>
-        <v>4.9513888888888892E-2</v>
-      </c>
-      <c r="O8">
-        <v>1009</v>
-      </c>
-      <c r="P8" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="12" t="e">
         <f t="shared" ref="P8:P49" si="1">O8/K8</f>
-        <v>0.70757363253856942</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>5568785</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="4">
-        <v>41182</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="10">
+        <v>40526</v>
+      </c>
+      <c r="G9" s="10">
         <v>141120</v>
       </c>
-      <c r="H9" s="4">
-        <v>29.182255000000001</v>
+      <c r="H9" s="10">
+        <v>28.717404999999999</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K9">
-        <v>41360</v>
-      </c>
-      <c r="L9" s="4">
-        <v>141120</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="L9" s="4"/>
+      <c r="M9" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0.29308390022675734</v>
-      </c>
-      <c r="O9">
-        <v>37587</v>
-      </c>
-      <c r="P9" s="13">
-        <f t="shared" si="1"/>
-        <v>0.90877659574468084</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="10">
         <v>124</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="10">
         <v>216</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="10">
         <v>57.407409999999999</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K10">
-        <v>124</v>
-      </c>
-      <c r="L10" s="4">
-        <v>216</v>
-      </c>
-      <c r="M10" s="8">
+      <c r="L10" s="4"/>
+      <c r="M10" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0.57407407407407407</v>
-      </c>
-      <c r="O10">
-        <v>124</v>
-      </c>
-      <c r="P10" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="E11" s="5" t="s">
+      <c r="B11" s="15"/>
+      <c r="E11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <v>24</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="10">
         <v>360</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="10">
         <v>6.6666670000000003</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>24</v>
-      </c>
-      <c r="L11" s="4">
-        <v>360</v>
-      </c>
-      <c r="M11" s="8">
+      <c r="L11" s="4"/>
+      <c r="M11" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="O11">
-        <v>24</v>
-      </c>
-      <c r="P11" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>5568785</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="10">
         <v>10</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="10">
         <v>82</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="10">
         <v>12.195122</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12" s="4">
-        <v>82</v>
-      </c>
-      <c r="M12" s="8">
+      <c r="L12" s="4"/>
+      <c r="M12" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>5755758</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="10">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="10">
         <v>196</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="10">
         <v>0.51020410000000005</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="4">
-        <v>196</v>
-      </c>
-      <c r="M13" s="8">
+      <c r="L13" s="4"/>
+      <c r="M13" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>5.1020408163265302E-3</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
-      </c>
-      <c r="B14">
-        <v>5755758</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="J14" s="4"/>
-      <c r="P14" s="13"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
-      </c>
-      <c r="B15">
-        <v>5755758</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>2</v>
@@ -968,579 +887,468 @@
       <c r="J15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
-        <v>5755758</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="4">
-        <v>45779</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="10">
+        <v>41543</v>
+      </c>
+      <c r="G16" s="10">
         <v>70560</v>
       </c>
-      <c r="H16" s="4">
-        <v>64.879540000000006</v>
+      <c r="H16" s="10">
+        <v>58.876133000000003</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="4">
-        <v>46022</v>
-      </c>
-      <c r="L16" s="4">
-        <v>70560</v>
-      </c>
-      <c r="M16" s="8">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0.65223922902494336</v>
-      </c>
-      <c r="O16">
-        <v>42993</v>
-      </c>
-      <c r="P16" s="13">
-        <f t="shared" si="1"/>
-        <v>0.93418365129720571</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
-        <v>5755758</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="4">
-        <v>2308</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="10">
+        <v>2427</v>
+      </c>
+      <c r="G17" s="10">
         <v>28800</v>
       </c>
-      <c r="H17" s="4">
-        <v>8.0138890000000007</v>
+      <c r="H17" s="10">
+        <v>8.4270840000000007</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="4">
-        <v>2322</v>
-      </c>
-      <c r="L17" s="4">
-        <v>28800</v>
-      </c>
-      <c r="M17" s="8">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="8" t="e">
         <f>K17/L17</f>
-        <v>8.0625000000000002E-2</v>
-      </c>
-      <c r="O17">
-        <v>1905</v>
-      </c>
-      <c r="P17" s="13">
-        <f t="shared" si="1"/>
-        <v>0.82041343669250644</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="4">
-        <v>53405</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="10">
+        <v>50740</v>
+      </c>
+      <c r="G18" s="10">
         <v>141120</v>
       </c>
-      <c r="H18" s="4">
-        <v>37.843679999999999</v>
+      <c r="H18" s="10">
+        <v>35.955215000000003</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="4">
-        <v>53620</v>
-      </c>
-      <c r="L18" s="4">
-        <v>141120</v>
-      </c>
-      <c r="M18" s="8">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="8" t="e">
         <f t="shared" ref="M18:M49" si="2">K18/L18</f>
-        <v>0.37996031746031744</v>
-      </c>
-      <c r="O18">
-        <v>49847</v>
-      </c>
-      <c r="P18" s="13">
-        <f t="shared" si="1"/>
-        <v>0.92963446475195821</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="5" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="10">
         <v>131.5</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="10">
         <v>216</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="10">
         <v>60.879629999999999</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="4">
-        <v>131.5</v>
-      </c>
-      <c r="L19" s="4">
-        <v>216</v>
-      </c>
-      <c r="M19" s="8">
-        <f t="shared" si="2"/>
-        <v>0.60879629629629628</v>
-      </c>
-      <c r="O19">
-        <v>131.5</v>
-      </c>
-      <c r="P19" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="5" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="10">
         <v>26</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="10">
         <v>360</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="10">
         <v>7.2222223000000003</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="4">
-        <v>26</v>
-      </c>
-      <c r="L20" s="4">
-        <v>360</v>
-      </c>
-      <c r="M20" s="8">
-        <f t="shared" si="2"/>
-        <v>7.2222222222222215E-2</v>
-      </c>
-      <c r="O20">
-        <v>26</v>
-      </c>
-      <c r="P20" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="5" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="10">
         <v>10</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="10">
         <v>82</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="10">
         <v>12.195122</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="4">
-        <v>10</v>
-      </c>
-      <c r="L21" s="4">
-        <v>82</v>
-      </c>
-      <c r="M21" s="8">
-        <f t="shared" si="2"/>
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="4" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="10">
         <v>1</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="10">
         <v>196</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="10">
         <v>0.51020410000000005</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="4">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4">
-        <v>196</v>
-      </c>
-      <c r="M22" s="8">
-        <f t="shared" si="2"/>
-        <v>5.1020408163265302E-3</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="P23" s="13"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="13"/>
+      <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="5" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="4">
-        <v>39556</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="10">
+        <v>36200</v>
+      </c>
+      <c r="G25" s="10">
         <v>70560</v>
       </c>
-      <c r="H25" s="4">
-        <v>56.060093000000002</v>
+      <c r="H25" s="10">
+        <v>51.303856000000003</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K25">
-        <v>39779</v>
-      </c>
-      <c r="L25" s="4">
-        <v>70560</v>
-      </c>
-      <c r="M25" s="8">
-        <f t="shared" si="2"/>
-        <v>0.56376133786848071</v>
-      </c>
-      <c r="O25">
-        <v>36750</v>
-      </c>
-      <c r="P25" s="13">
-        <f t="shared" si="1"/>
-        <v>0.92385429497976324</v>
+      <c r="L25" s="4"/>
+      <c r="M25" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="4" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="4">
-        <v>3716</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="F26" s="10">
+        <v>3830</v>
+      </c>
+      <c r="G26" s="10">
         <v>28800</v>
       </c>
-      <c r="H26" s="4">
-        <v>12.902779000000001</v>
+      <c r="H26" s="10">
+        <v>13.298612</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K26">
-        <v>3730</v>
-      </c>
-      <c r="L26" s="4">
-        <v>28800</v>
-      </c>
-      <c r="M26" s="8">
-        <f t="shared" si="2"/>
-        <v>0.1295138888888889</v>
-      </c>
-      <c r="O26">
-        <v>3313</v>
-      </c>
-      <c r="P26" s="13">
-        <f t="shared" si="1"/>
-        <v>0.88820375335120638</v>
+      <c r="L26" s="4"/>
+      <c r="M26" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="4" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="4">
-        <v>49811</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="10">
+        <v>47792</v>
+      </c>
+      <c r="G27" s="10">
         <v>141120</v>
       </c>
-      <c r="H27" s="4">
-        <v>35.296909999999997</v>
+      <c r="H27" s="10">
+        <v>33.866210000000002</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K27">
-        <v>50064</v>
-      </c>
-      <c r="L27" s="4">
-        <v>141120</v>
-      </c>
-      <c r="M27" s="8">
-        <f t="shared" si="2"/>
-        <v>0.35476190476190478</v>
-      </c>
-      <c r="O27">
-        <v>46291</v>
-      </c>
-      <c r="P27" s="13">
-        <f t="shared" si="1"/>
-        <v>0.92463646532438482</v>
+      <c r="L27" s="4"/>
+      <c r="M27" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="4" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="10">
         <v>154.5</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="10">
         <v>216</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="10">
         <v>71.527780000000007</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K28">
-        <v>154.5</v>
-      </c>
-      <c r="L28" s="4">
-        <v>216</v>
-      </c>
-      <c r="M28" s="8">
-        <f t="shared" si="2"/>
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="O28">
-        <v>154.5</v>
-      </c>
-      <c r="P28" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="L28" s="4"/>
+      <c r="M28" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="4" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="10">
         <v>32</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="10">
         <v>360</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="10">
         <v>8.8888890000000007</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K29">
-        <v>32</v>
-      </c>
-      <c r="L29" s="4">
-        <v>360</v>
-      </c>
-      <c r="M29" s="8">
-        <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="O29">
-        <v>32</v>
-      </c>
-      <c r="P29" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="L29" s="4"/>
+      <c r="M29" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="10">
         <v>10</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="10">
         <v>82</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="10">
         <v>12.195122</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K30">
-        <v>10</v>
-      </c>
-      <c r="L30" s="4">
-        <v>82</v>
-      </c>
-      <c r="M30" s="8">
-        <f t="shared" si="2"/>
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="L30" s="4"/>
+      <c r="M30" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="10">
         <v>1</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="10">
         <v>196</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="10">
         <v>0.51020410000000005</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" s="4">
-        <v>196</v>
-      </c>
-      <c r="M31" s="8">
-        <f t="shared" si="2"/>
-        <v>5.1020408163265302E-3</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="L31" s="4"/>
+      <c r="M31" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J32" s="4"/>
-      <c r="P32" s="13"/>
+      <c r="P32" s="12"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
@@ -1549,249 +1357,193 @@
       <c r="J33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="13"/>
+      <c r="P33" s="12"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="4">
-        <v>27231</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34" s="10">
+        <v>26809</v>
+      </c>
+      <c r="G34" s="10">
         <v>70560</v>
       </c>
-      <c r="H34" s="4">
-        <v>38.592686</v>
+      <c r="H34" s="10">
+        <v>37.994613999999999</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K34">
-        <v>31933</v>
-      </c>
-      <c r="L34" s="4">
-        <v>70560</v>
-      </c>
-      <c r="M34" s="8">
-        <f t="shared" si="2"/>
-        <v>0.45256519274376417</v>
-      </c>
-      <c r="O34">
-        <v>28904</v>
-      </c>
-      <c r="P34" s="13">
-        <f t="shared" si="1"/>
-        <v>0.90514514765289822</v>
+      <c r="L34" s="4"/>
+      <c r="M34" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="10">
         <v>1731</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="10">
         <v>28800</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="10">
         <v>6.0104164999999998</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K35">
-        <v>1743</v>
-      </c>
-      <c r="L35" s="4">
-        <v>28800</v>
-      </c>
-      <c r="M35" s="8">
-        <f t="shared" si="2"/>
-        <v>6.0520833333333336E-2</v>
-      </c>
-      <c r="O35">
-        <v>1326</v>
-      </c>
-      <c r="P35" s="13">
-        <f t="shared" si="1"/>
-        <v>0.76075731497418242</v>
+      <c r="L35" s="4"/>
+      <c r="M35" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="4">
-        <v>30960</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="F36" s="10">
+        <v>30951</v>
+      </c>
+      <c r="G36" s="10">
         <v>141120</v>
       </c>
-      <c r="H36" s="4">
-        <v>21.938776000000001</v>
+      <c r="H36" s="10">
+        <v>21.932397999999999</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K36">
-        <v>31193</v>
-      </c>
-      <c r="L36" s="4">
-        <v>141120</v>
-      </c>
-      <c r="M36" s="8">
-        <f t="shared" si="2"/>
-        <v>0.22103883219954648</v>
-      </c>
-      <c r="O36">
-        <v>27420</v>
-      </c>
-      <c r="P36" s="13">
-        <f t="shared" si="1"/>
-        <v>0.879043375116212</v>
+      <c r="L36" s="4"/>
+      <c r="M36" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="10">
         <v>110</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="10">
         <v>216</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="10">
         <v>50.925930000000001</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K37">
-        <v>110</v>
-      </c>
-      <c r="L37" s="4">
-        <v>216</v>
-      </c>
-      <c r="M37" s="8">
-        <f t="shared" si="2"/>
-        <v>0.5092592592592593</v>
-      </c>
-      <c r="O37">
-        <v>110</v>
-      </c>
-      <c r="P37" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="L37" s="4"/>
+      <c r="M37" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="10">
         <v>4</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="10">
         <v>360</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="10">
         <v>1.1111112000000001</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K38">
-        <v>4</v>
-      </c>
-      <c r="L38" s="4">
-        <v>360</v>
-      </c>
-      <c r="M38" s="8">
-        <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="O38">
-        <v>4</v>
-      </c>
-      <c r="P38" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="L38" s="4"/>
+      <c r="M38" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="10">
         <v>10</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="10">
         <v>82</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="10">
         <v>12.195122</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K39">
-        <v>10</v>
-      </c>
-      <c r="L39" s="4">
-        <v>82</v>
-      </c>
-      <c r="M39" s="8">
-        <f t="shared" si="2"/>
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="L39" s="4"/>
+      <c r="M39" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P39" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="10">
         <v>1</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="10">
         <v>196</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="10">
         <v>0.51020410000000005</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" s="4">
-        <v>196</v>
-      </c>
-      <c r="M40" s="8">
-        <f t="shared" si="2"/>
-        <v>5.1020408163265302E-3</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="L40" s="4"/>
+      <c r="M40" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P40" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="J41" s="4"/>
-      <c r="P41" s="13"/>
+      <c r="P41" s="12"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
@@ -1800,265 +1552,209 @@
       <c r="J42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="13"/>
+      <c r="P42" s="12"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="4">
-        <v>48086</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="F43" s="10">
+        <v>47695</v>
+      </c>
+      <c r="G43" s="10">
         <v>70560</v>
       </c>
-      <c r="H43" s="4">
-        <v>68.149090000000001</v>
+      <c r="H43" s="10">
+        <v>67.594954999999999</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K43">
-        <v>53433</v>
-      </c>
-      <c r="L43" s="4">
-        <v>70560</v>
-      </c>
-      <c r="M43" s="8">
-        <f t="shared" si="2"/>
-        <v>0.7572704081632653</v>
-      </c>
-      <c r="O43">
-        <v>50404</v>
-      </c>
-      <c r="P43" s="13">
-        <f t="shared" si="1"/>
-        <v>0.94331218535362038</v>
+      <c r="L43" s="4"/>
+      <c r="M43" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P43" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="10">
         <v>2822</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="10">
         <v>28800</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="10">
         <v>9.7986109999999993</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K44">
-        <v>2831</v>
-      </c>
-      <c r="L44" s="4">
-        <v>28800</v>
-      </c>
-      <c r="M44" s="8">
-        <f t="shared" si="2"/>
-        <v>9.8298611111111114E-2</v>
-      </c>
-      <c r="O44">
-        <v>2414</v>
-      </c>
-      <c r="P44" s="13">
-        <f t="shared" si="1"/>
-        <v>0.85270222536206286</v>
+      <c r="L44" s="4"/>
+      <c r="M44" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P44" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="4">
-        <v>35536</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="F45" s="10">
+        <v>35521</v>
+      </c>
+      <c r="G45" s="10">
         <v>141120</v>
       </c>
-      <c r="H45" s="4">
-        <v>25.181405999999999</v>
+      <c r="H45" s="10">
+        <v>25.170776</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K45">
-        <v>39857</v>
-      </c>
-      <c r="L45" s="4">
-        <v>141120</v>
-      </c>
-      <c r="M45" s="8">
-        <f t="shared" si="2"/>
-        <v>0.28243339002267576</v>
-      </c>
-      <c r="O45">
-        <v>36084</v>
-      </c>
-      <c r="P45" s="13">
-        <f t="shared" si="1"/>
-        <v>0.90533657826730563</v>
+      <c r="L45" s="4"/>
+      <c r="M45" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P45" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="10">
         <v>110</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="10">
         <v>216</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="10">
         <v>50.925930000000001</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K46">
-        <v>110</v>
-      </c>
-      <c r="L46" s="4">
-        <v>216</v>
-      </c>
-      <c r="M46" s="8">
-        <f t="shared" si="2"/>
-        <v>0.5092592592592593</v>
-      </c>
-      <c r="O46">
-        <v>110</v>
-      </c>
-      <c r="P46" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="L46" s="4"/>
+      <c r="M46" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P46" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="10">
         <v>4</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="10">
         <v>360</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="10">
         <v>1.1111112000000001</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K47">
-        <v>4</v>
-      </c>
-      <c r="L47" s="4">
-        <v>360</v>
-      </c>
-      <c r="M47" s="8">
-        <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="O47">
-        <v>4</v>
-      </c>
-      <c r="P47" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="L47" s="4"/>
+      <c r="M47" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P47" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="10">
         <v>10</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="10">
         <v>82</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="10">
         <v>12.195122</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K48">
-        <v>10</v>
-      </c>
-      <c r="L48" s="4">
-        <v>82</v>
-      </c>
-      <c r="M48" s="8">
-        <f t="shared" si="2"/>
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="L48" s="4"/>
+      <c r="M48" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P48" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="10">
         <v>1</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="10">
         <v>196</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="10">
         <v>0.51020410000000005</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" s="4">
-        <v>196</v>
-      </c>
-      <c r="M49" s="8">
-        <f t="shared" si="2"/>
-        <v>5.1020408163265302E-3</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="L49" s="4"/>
+      <c r="M49" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P49" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2087,10 +1783,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2127,10 +1823,10 @@
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="15"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">

--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F67FE-6309-4258-9EF8-BE0B0EE220F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE1A5C7-E970-420C-99B5-14A5E6BAE99E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5715" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
+    <workbookView xWindow="-26250" yWindow="4170" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="specs" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,6 +233,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +553,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,6 +638,9 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>5568785</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>33</v>
       </c>
@@ -657,6 +662,9 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="B6" s="13">
+        <v>5568785</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
@@ -668,6 +676,9 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7" s="13">
+        <v>5568785</v>
+      </c>
       <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
@@ -697,6 +708,9 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8" s="13">
+        <v>5568785</v>
+      </c>
       <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
@@ -725,6 +739,9 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
+      </c>
+      <c r="B9" s="13">
+        <v>5568785</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>29</v>
@@ -893,17 +910,17 @@
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="10">
-        <v>41543</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="13">
+        <v>45540</v>
+      </c>
+      <c r="G16" s="13">
         <v>70560</v>
       </c>
-      <c r="H16" s="10">
-        <v>58.876133000000003</v>
+      <c r="H16" s="13">
+        <v>64.540819999999997</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>25</v>
@@ -923,17 +940,17 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="10">
-        <v>2427</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="F17" s="13">
+        <v>2300</v>
+      </c>
+      <c r="G17" s="13">
         <v>28800</v>
       </c>
-      <c r="H17" s="10">
-        <v>8.4270840000000007</v>
+      <c r="H17" s="13">
+        <v>7.9861110000000002</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>28</v>
@@ -950,17 +967,17 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="10">
-        <v>50740</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F18" s="13">
+        <v>53522</v>
+      </c>
+      <c r="G18" s="13">
         <v>141120</v>
       </c>
-      <c r="H18" s="10">
-        <v>35.955215000000003</v>
+      <c r="H18" s="13">
+        <v>37.926586</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>29</v>
@@ -977,22 +994,22 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="13">
         <v>131.5</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="13">
         <v>216</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="13">
         <v>60.879629999999999</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -1010,22 +1027,22 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="11" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="13">
         <v>26</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="13">
         <v>360</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="13">
         <v>7.2222223000000003</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -1043,22 +1060,22 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="11" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="13">
         <v>10</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="13">
         <v>82</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="13">
         <v>12.195122</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -1076,22 +1093,22 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="10" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="13">
         <v>1</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="13">
         <v>196</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="13">
         <v>0.51020410000000005</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -1109,23 +1126,23 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="5"/>
       <c r="J23" s="5"/>
       <c r="P23" s="12"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
@@ -1135,12 +1152,12 @@
       <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
@@ -1167,12 +1184,12 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="10" t="s">
         <v>28</v>
       </c>
@@ -1199,12 +1216,12 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1231,12 +1248,12 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="10" t="s">
         <v>26</v>
       </c>
@@ -1263,12 +1280,12 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="10" t="s">
         <v>27</v>
       </c>
@@ -1738,23 +1755,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE1A5C7-E970-420C-99B5-14A5E6BAE99E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37920F9A-55E6-421C-9EE0-6FA7267CD9B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26250" yWindow="4170" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -230,11 +230,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +555,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,24 +571,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -614,22 +616,22 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="19"/>
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="J4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="O4" s="7" t="s">
         <v>38</v>
       </c>
@@ -679,18 +681,19 @@
       <c r="B7" s="13">
         <v>5568785</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10">
-        <v>27737</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="15">
+        <v>30815</v>
+      </c>
+      <c r="G7" s="15">
         <v>70560</v>
       </c>
-      <c r="H7" s="10">
-        <v>39.309806999999999</v>
-      </c>
+      <c r="H7" s="15">
+        <v>43.672049999999999</v>
+      </c>
+      <c r="I7" s="15"/>
       <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
@@ -711,18 +714,19 @@
       <c r="B8" s="13">
         <v>5568785</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="10">
-        <v>1525</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="15">
+        <v>1404</v>
+      </c>
+      <c r="G8" s="15">
         <v>28800</v>
       </c>
-      <c r="H8" s="10">
-        <v>5.2951389999999998</v>
-      </c>
+      <c r="H8" s="15">
+        <v>4.875</v>
+      </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
@@ -743,18 +747,19 @@
       <c r="B9" s="13">
         <v>5568785</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="10">
-        <v>40526</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="15">
+        <v>41292</v>
+      </c>
+      <c r="G9" s="15">
         <v>141120</v>
       </c>
-      <c r="H9" s="10">
-        <v>28.717404999999999</v>
-      </c>
+      <c r="H9" s="15">
+        <v>29.260202</v>
+      </c>
+      <c r="I9" s="15"/>
       <c r="J9" s="5" t="s">
         <v>29</v>
       </c>
@@ -769,18 +774,19 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="15">
         <v>124</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="15">
         <v>216</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="15">
         <v>57.407409999999999</v>
       </c>
+      <c r="I10" s="15"/>
       <c r="J10" s="4" t="s">
         <v>26</v>
       </c>
@@ -795,22 +801,23 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="19"/>
+      <c r="E11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="15">
         <v>24</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="15">
         <v>360</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="15">
         <v>6.6666670000000003</v>
       </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="5" t="s">
         <v>27</v>
       </c>
@@ -828,18 +835,19 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="15">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="15">
         <v>82</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="15">
         <v>12.195122</v>
       </c>
+      <c r="I12" s="15"/>
       <c r="J12" s="5" t="s">
         <v>30</v>
       </c>
@@ -857,18 +865,19 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="15">
         <v>1</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="15">
         <v>196</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="15">
         <v>0.51020410000000005</v>
       </c>
+      <c r="I13" s="15"/>
       <c r="J13" s="5" t="s">
         <v>31</v>
       </c>
@@ -994,12 +1003,12 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="14" t="s">
         <v>26</v>
       </c>
@@ -1027,12 +1036,12 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="14" t="s">
         <v>27</v>
       </c>
@@ -1060,12 +1069,12 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="14" t="s">
         <v>30</v>
       </c>
@@ -1093,12 +1102,12 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="13" t="s">
         <v>31</v>
       </c>
@@ -1126,23 +1135,23 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="5"/>
       <c r="J23" s="5"/>
       <c r="P23" s="12"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
@@ -1152,12 +1161,12 @@
       <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
@@ -1184,12 +1193,12 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="10" t="s">
         <v>28</v>
       </c>
@@ -1216,12 +1225,12 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1248,12 +1257,12 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="10" t="s">
         <v>26</v>
       </c>
@@ -1280,12 +1289,12 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="10" t="s">
         <v>27</v>
       </c>
@@ -1755,23 +1764,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1800,10 +1809,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1840,10 +1849,10 @@
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">

--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37920F9A-55E6-421C-9EE0-6FA7267CD9B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A74546-D73D-476C-AB1C-8604FCADEA26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26250" yWindow="4170" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -224,7 +224,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -237,6 +236,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +556,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,24 +572,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -616,22 +617,22 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="E4" s="19" t="s">
+      <c r="B4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="J4" s="19" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="J4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="O4" s="7" t="s">
         <v>38</v>
       </c>
@@ -664,7 +665,7 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>5568785</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -678,22 +679,22 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>5568785</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>30815</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>70560</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>43.672049999999999</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
@@ -702,7 +703,7 @@
         <f>K7/L7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P7" s="12" t="e">
+      <c r="P7" s="11" t="e">
         <f>O7/K7</f>
         <v>#DIV/0!</v>
       </c>
@@ -711,22 +712,22 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>5568785</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>1404</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>28800</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>4.875</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
@@ -735,7 +736,7 @@
         <f t="shared" ref="M8:M16" si="0">K8/L8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="12" t="e">
+      <c r="P8" s="11" t="e">
         <f t="shared" ref="P8:P49" si="1">O8/K8</f>
         <v>#DIV/0!</v>
       </c>
@@ -744,22 +745,22 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>5568785</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>41292</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>141120</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>29.260202</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="5" t="s">
         <v>29</v>
       </c>
@@ -768,25 +769,25 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P9" s="12" t="e">
+      <c r="P9" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>124</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>216</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>57.407409999999999</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="4" t="s">
         <v>26</v>
       </c>
@@ -795,29 +796,29 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="12" t="e">
+      <c r="P10" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="E11" s="16" t="s">
+      <c r="B11" s="18"/>
+      <c r="E11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>24</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>360</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>6.6666670000000003</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="5" t="s">
         <v>27</v>
       </c>
@@ -826,7 +827,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="12" t="e">
+      <c r="P11" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -835,19 +836,19 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>10</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>82</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>12.195122</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="5" t="s">
         <v>30</v>
       </c>
@@ -856,7 +857,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="12" t="e">
+      <c r="P12" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -865,19 +866,19 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>196</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>0.51020410000000005</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="5" t="s">
         <v>31</v>
       </c>
@@ -886,7 +887,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="12" t="e">
+      <c r="P13" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -899,7 +900,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="J14" s="4"/>
-      <c r="P14" s="12"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -913,22 +914,22 @@
       <c r="J15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="12"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>45540</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>70560</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>64.540819999999997</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -940,7 +941,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P16" s="12" t="e">
+      <c r="P16" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -949,16 +950,16 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>2300</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>28800</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>7.9861110000000002</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -970,22 +971,22 @@
         <f>K17/L17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P17" s="12" t="e">
+      <c r="P17" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>53522</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>141120</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>37.926586</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -997,28 +998,28 @@
         <f t="shared" ref="M18:M49" si="2">K18/L18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P18" s="12" t="e">
+      <c r="P18" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="14" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>131.5</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>216</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>60.879629999999999</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -1030,28 +1031,28 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="12" t="e">
+      <c r="P19" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="14" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>26</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>360</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>7.2222223000000003</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -1063,28 +1064,28 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P20" s="12" t="e">
+      <c r="P20" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="14" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>10</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>82</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>12.195122</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -1096,28 +1097,28 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P21" s="12" t="e">
+      <c r="P21" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="13" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>1</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <v>196</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>0.51020410000000005</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -1129,55 +1130,55 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P22" s="12" t="e">
+      <c r="P22" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="P23" s="12"/>
+      <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="12"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="11" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="10">
-        <v>36200</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="F25" s="16">
+        <v>39370</v>
+      </c>
+      <c r="G25" s="16">
         <v>70560</v>
       </c>
-      <c r="H25" s="10">
-        <v>51.303856000000003</v>
+      <c r="H25" s="16">
+        <v>55.796486000000002</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>25</v>
@@ -1187,29 +1188,29 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P25" s="12" t="e">
+      <c r="P25" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="10" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="10">
-        <v>3830</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="F26" s="16">
+        <v>3708</v>
+      </c>
+      <c r="G26" s="16">
         <v>28800</v>
       </c>
-      <c r="H26" s="10">
-        <v>13.298612</v>
+      <c r="H26" s="16">
+        <v>12.875</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>28</v>
@@ -1219,29 +1220,29 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P26" s="12" t="e">
+      <c r="P26" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="10" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="10">
-        <v>47792</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F27" s="16">
+        <v>49933</v>
+      </c>
+      <c r="G27" s="16">
         <v>141120</v>
       </c>
-      <c r="H27" s="10">
-        <v>33.866210000000002</v>
+      <c r="H27" s="16">
+        <v>35.383360000000003</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>29</v>
@@ -1251,28 +1252,28 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="12" t="e">
+      <c r="P27" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="10" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="16">
         <v>154.5</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="16">
         <v>216</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="16">
         <v>71.527780000000007</v>
       </c>
       <c r="J28" s="4" t="s">
@@ -1283,28 +1284,28 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="12" t="e">
+      <c r="P28" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="10" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="16">
         <v>32</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="16">
         <v>360</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="16">
         <v>8.8888890000000007</v>
       </c>
       <c r="J29" s="4" t="s">
@@ -1315,22 +1316,22 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="12" t="e">
+      <c r="P29" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="16">
         <v>10</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="16">
         <v>82</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="16">
         <v>12.195122</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -1341,22 +1342,22 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="12" t="e">
+      <c r="P30" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="16">
         <v>1</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="16">
         <v>196</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="16">
         <v>0.51020410000000005</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -1367,14 +1368,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P31" s="12" t="e">
+      <c r="P31" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J32" s="4"/>
-      <c r="P32" s="12"/>
+      <c r="P32" s="11"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
@@ -1383,7 +1384,7 @@
       <c r="J33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="12"/>
+      <c r="P33" s="11"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="10" t="s">
@@ -1406,7 +1407,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P34" s="12" t="e">
+      <c r="P34" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1432,7 +1433,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P35" s="12" t="e">
+      <c r="P35" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1458,7 +1459,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P36" s="12" t="e">
+      <c r="P36" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1484,7 +1485,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P37" s="12" t="e">
+      <c r="P37" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1510,7 +1511,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P38" s="12" t="e">
+      <c r="P38" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1536,7 +1537,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P39" s="12" t="e">
+      <c r="P39" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1562,14 +1563,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P40" s="12" t="e">
+      <c r="P40" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="J41" s="4"/>
-      <c r="P41" s="12"/>
+      <c r="P41" s="11"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
@@ -1578,7 +1579,7 @@
       <c r="J42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="12"/>
+      <c r="P42" s="11"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E43" s="10" t="s">
@@ -1601,7 +1602,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P43" s="12" t="e">
+      <c r="P43" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1627,7 +1628,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P44" s="12" t="e">
+      <c r="P44" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1653,7 +1654,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P45" s="12" t="e">
+      <c r="P45" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1679,7 +1680,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P46" s="12" t="e">
+      <c r="P46" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1705,7 +1706,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P47" s="12" t="e">
+      <c r="P47" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1731,7 +1732,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P48" s="12" t="e">
+      <c r="P48" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1757,30 +1758,30 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P49" s="12" t="e">
+      <c r="P49" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1809,10 +1810,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1849,10 +1850,10 @@
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">

--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A74546-D73D-476C-AB1C-8604FCADEA26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424CEA66-1D74-4FAF-BB42-28399450E72B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26250" yWindow="4170" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
+    <workbookView xWindow="2520" yWindow="3465" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="specs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="39">
   <si>
     <t>Bitstream sizes</t>
   </si>
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,11 +233,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EDEE1-3369-479B-AE07-FACAD3ED1A6B}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,24 +573,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -617,22 +618,22 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="E4" s="18" t="s">
+      <c r="B4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="J4" s="18" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="J4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="O4" s="7" t="s">
         <v>38</v>
       </c>
@@ -698,10 +699,12 @@
       <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="8" t="e">
+      <c r="L7" s="18">
+        <v>70560</v>
+      </c>
+      <c r="M7" s="8">
         <f>K7/L7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P7" s="11" t="e">
         <f>O7/K7</f>
@@ -731,10 +734,12 @@
       <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="8" t="e">
+      <c r="L8" s="18">
+        <v>28800</v>
+      </c>
+      <c r="M8" s="8">
         <f t="shared" ref="M8:M16" si="0">K8/L8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P8" s="11" t="e">
         <f t="shared" ref="P8:P49" si="1">O8/K8</f>
@@ -764,10 +769,12 @@
       <c r="J9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="8" t="e">
+      <c r="L9" s="18">
+        <v>141120</v>
+      </c>
+      <c r="M9" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P9" s="11" t="e">
         <f t="shared" si="1"/>
@@ -791,10 +798,12 @@
       <c r="J10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="8" t="e">
+      <c r="L10" s="18">
+        <v>216</v>
+      </c>
+      <c r="M10" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P10" s="11" t="e">
         <f t="shared" si="1"/>
@@ -802,10 +811,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="E11" s="15" t="s">
         <v>27</v>
       </c>
@@ -822,10 +831,12 @@
       <c r="J11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="8" t="e">
+      <c r="L11" s="18">
+        <v>360</v>
+      </c>
+      <c r="M11" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P11" s="11" t="e">
         <f t="shared" si="1"/>
@@ -852,10 +863,12 @@
       <c r="J12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="8" t="e">
+      <c r="L12" s="18">
+        <v>82</v>
+      </c>
+      <c r="M12" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P12" s="11" t="e">
         <f t="shared" si="1"/>
@@ -882,10 +895,12 @@
       <c r="J13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="8" t="e">
+      <c r="L13" s="18">
+        <v>196</v>
+      </c>
+      <c r="M13" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P13" s="11" t="e">
         <f t="shared" si="1"/>
@@ -900,6 +915,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="J14" s="4"/>
+      <c r="L14" s="18"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -914,6 +930,7 @@
       <c r="J15" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="L15" s="18"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -936,10 +953,12 @@
         <v>25</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="8" t="e">
+      <c r="L16" s="18">
+        <v>70560</v>
+      </c>
+      <c r="M16" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P16" s="11" t="e">
         <f t="shared" si="1"/>
@@ -966,10 +985,12 @@
         <v>28</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="8" t="e">
+      <c r="L17" s="18">
+        <v>28800</v>
+      </c>
+      <c r="M17" s="8">
         <f>K17/L17</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P17" s="11" t="e">
         <f t="shared" si="1"/>
@@ -993,10 +1014,12 @@
         <v>29</v>
       </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="8" t="e">
+      <c r="L18" s="18">
+        <v>141120</v>
+      </c>
+      <c r="M18" s="8">
         <f t="shared" ref="M18:M49" si="2">K18/L18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P18" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1026,10 +1049,12 @@
         <v>26</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L19" s="18">
+        <v>216</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P19" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1059,10 +1084,12 @@
         <v>27</v>
       </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L20" s="18">
+        <v>360</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P20" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1092,10 +1119,12 @@
         <v>30</v>
       </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L21" s="18">
+        <v>82</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P21" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1125,10 +1154,12 @@
         <v>31</v>
       </c>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L22" s="18">
+        <v>196</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P22" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1144,6 +1175,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="5"/>
       <c r="J23" s="5"/>
+      <c r="L23" s="18"/>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1159,6 +1191,7 @@
       <c r="J24" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="L24" s="18"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1183,10 +1216,12 @@
       <c r="J25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L25" s="18">
+        <v>70560</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P25" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1215,10 +1250,12 @@
       <c r="J26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L26" s="18">
+        <v>28800</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P26" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1247,10 +1284,12 @@
       <c r="J27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L27" s="18">
+        <v>141120</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P27" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1279,10 +1318,12 @@
       <c r="J28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L28" s="18">
+        <v>216</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P28" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1311,10 +1352,12 @@
       <c r="J29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L29" s="18">
+        <v>360</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P29" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1337,10 +1380,12 @@
       <c r="J30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L30" s="18">
+        <v>82</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P30" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1363,10 +1408,12 @@
       <c r="J31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L31" s="18">
+        <v>196</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P31" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1387,25 +1434,27 @@
       <c r="P33" s="11"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="10">
-        <v>26809</v>
-      </c>
-      <c r="G34" s="10">
+      <c r="F34" s="18">
+        <v>31507</v>
+      </c>
+      <c r="G34" s="18">
         <v>70560</v>
       </c>
-      <c r="H34" s="10">
-        <v>37.994613999999999</v>
+      <c r="H34" s="18">
+        <v>44.65278</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L34" s="18">
+        <v>70560</v>
+      </c>
+      <c r="M34" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P34" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1413,25 +1462,27 @@
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="10">
-        <v>1731</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="F35" s="18">
+        <v>1721</v>
+      </c>
+      <c r="G35" s="18">
         <v>28800</v>
       </c>
-      <c r="H35" s="10">
-        <v>6.0104164999999998</v>
+      <c r="H35" s="18">
+        <v>5.9756947</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L35" s="18">
+        <v>28800</v>
+      </c>
+      <c r="M35" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P35" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1439,25 +1490,27 @@
       </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="10">
-        <v>30951</v>
-      </c>
-      <c r="G36" s="10">
+      <c r="F36" s="18">
+        <v>31113</v>
+      </c>
+      <c r="G36" s="18">
         <v>141120</v>
       </c>
-      <c r="H36" s="10">
-        <v>21.932397999999999</v>
+      <c r="H36" s="18">
+        <v>22.047194000000001</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L36" s="18">
+        <v>141120</v>
+      </c>
+      <c r="M36" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P36" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1465,25 +1518,27 @@
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="18">
         <v>110</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="18">
         <v>216</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="18">
         <v>50.925930000000001</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L37" s="18">
+        <v>216</v>
+      </c>
+      <c r="M37" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P37" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1491,25 +1546,27 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="18">
         <v>4</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="18">
         <v>360</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="18">
         <v>1.1111112000000001</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L38" s="18">
+        <v>360</v>
+      </c>
+      <c r="M38" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P38" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1517,25 +1574,27 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="18">
         <v>10</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="18">
         <v>82</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="18">
         <v>12.195122</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L39" s="18">
+        <v>82</v>
+      </c>
+      <c r="M39" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P39" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1543,25 +1602,27 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="18">
         <v>1</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="18">
         <v>196</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="18">
         <v>0.51020410000000005</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L40" s="18">
+        <v>196</v>
+      </c>
+      <c r="M40" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P40" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1570,6 +1631,7 @@
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="J41" s="4"/>
+      <c r="L41" s="18"/>
       <c r="P41" s="11"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
@@ -1579,28 +1641,23 @@
       <c r="J42" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="L42" s="18"/>
       <c r="P42" s="11"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="10">
-        <v>47695</v>
-      </c>
-      <c r="G43" s="10">
-        <v>70560</v>
-      </c>
-      <c r="H43" s="10">
-        <v>67.594954999999999</v>
-      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
       <c r="J43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L43" s="18">
+        <v>70560</v>
+      </c>
+      <c r="M43" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P43" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1608,25 +1665,19 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="10">
-        <v>2822</v>
-      </c>
-      <c r="G44" s="10">
-        <v>28800</v>
-      </c>
-      <c r="H44" s="10">
-        <v>9.7986109999999993</v>
-      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
       <c r="J44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L44" s="18">
+        <v>28800</v>
+      </c>
+      <c r="M44" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P44" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1634,25 +1685,19 @@
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E45" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="10">
-        <v>35521</v>
-      </c>
-      <c r="G45" s="10">
-        <v>141120</v>
-      </c>
-      <c r="H45" s="10">
-        <v>25.170776</v>
-      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
       <c r="J45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L45" s="18">
+        <v>141120</v>
+      </c>
+      <c r="M45" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P45" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1660,25 +1705,19 @@
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="10">
-        <v>110</v>
-      </c>
-      <c r="G46" s="10">
-        <v>216</v>
-      </c>
-      <c r="H46" s="10">
-        <v>50.925930000000001</v>
-      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
       <c r="J46" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L46" s="18">
+        <v>216</v>
+      </c>
+      <c r="M46" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P46" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1686,25 +1725,19 @@
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E47" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="10">
-        <v>4</v>
-      </c>
-      <c r="G47" s="10">
-        <v>360</v>
-      </c>
-      <c r="H47" s="10">
-        <v>1.1111112000000001</v>
-      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
       <c r="J47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L47" s="18">
+        <v>360</v>
+      </c>
+      <c r="M47" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P47" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1712,25 +1745,19 @@
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="10">
-        <v>10</v>
-      </c>
-      <c r="G48" s="10">
-        <v>82</v>
-      </c>
-      <c r="H48" s="10">
-        <v>12.195122</v>
-      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
       <c r="J48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L48" s="18">
+        <v>82</v>
+      </c>
+      <c r="M48" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P48" s="11" t="e">
         <f t="shared" si="1"/>
@@ -1738,50 +1765,71 @@
       </c>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E49" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="10">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10">
-        <v>196</v>
-      </c>
-      <c r="H49" s="10">
-        <v>0.51020410000000005</v>
-      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
       <c r="J49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L49" s="18">
+        <v>196</v>
+      </c>
+      <c r="M49" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P49" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+    </row>
+    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L50" s="18"/>
+    </row>
+    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L51" s="18"/>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L52" s="18"/>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L53" s="18"/>
+    </row>
+    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L54" s="18"/>
+    </row>
+    <row r="55" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L55" s="18"/>
+    </row>
+    <row r="56" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L56" s="18"/>
+    </row>
+    <row r="57" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L57" s="18"/>
+    </row>
+    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L58" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1810,10 +1858,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1850,10 +1898,10 @@
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">

--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424CEA66-1D74-4FAF-BB42-28399450E72B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83637B75-5AA5-49EA-8261-4C19DE252D89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="3465" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
   <si>
     <t>Bitstream sizes</t>
   </si>
@@ -223,7 +223,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -235,10 +234,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,24 +573,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -618,22 +618,22 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="19"/>
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="J4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="J4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="O4" s="7" t="s">
         <v>38</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>5568785</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -680,33 +680,33 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>5568785</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>30815</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>70560</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>43.672049999999999</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <v>70560</v>
       </c>
       <c r="M7" s="8">
         <f>K7/L7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="11" t="e">
+      <c r="P7" s="10" t="e">
         <f>O7/K7</f>
         <v>#DIV/0!</v>
       </c>
@@ -715,33 +715,33 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>5568785</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>1404</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>28800</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>4.875</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>28800</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" ref="M8:M16" si="0">K8/L8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="11" t="e">
+      <c r="P8" s="10" t="e">
         <f t="shared" ref="P8:P49" si="1">O8/K8</f>
         <v>#DIV/0!</v>
       </c>
@@ -750,95 +750,95 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>5568785</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>41292</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>141120</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>29.260202</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <v>141120</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="11" t="e">
+      <c r="P9" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>124</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>216</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>57.407409999999999</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <v>216</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="11" t="e">
+      <c r="P10" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="E11" s="15" t="s">
+      <c r="B11" s="19"/>
+      <c r="E11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>24</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>360</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>6.6666670000000003</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="17">
         <v>360</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="11" t="e">
+      <c r="P11" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -847,30 +847,30 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>10</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>82</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>12.195122</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <v>82</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="11" t="e">
+      <c r="P12" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -879,30 +879,30 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>1</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>196</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>0.51020410000000005</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <v>196</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="11" t="e">
+      <c r="P13" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -915,8 +915,8 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="J14" s="4"/>
-      <c r="L14" s="18"/>
-      <c r="P14" s="11"/>
+      <c r="L14" s="17"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -930,37 +930,37 @@
       <c r="J15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="P15" s="11"/>
+      <c r="L15" s="17"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>45540</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>70560</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>64.540819999999997</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="18">
+      <c r="L16" s="17">
         <v>70560</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="11" t="e">
+      <c r="P16" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -969,460 +969,460 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>2300</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>28800</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>7.9861110000000002</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="18">
+      <c r="L17" s="17">
         <v>28800</v>
       </c>
       <c r="M17" s="8">
         <f>K17/L17</f>
         <v>0</v>
       </c>
-      <c r="P17" s="11" t="e">
+      <c r="P17" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>53522</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>141120</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>37.926586</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="18">
+      <c r="L18" s="17">
         <v>141120</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" ref="M18:M49" si="2">K18/L18</f>
         <v>0</v>
       </c>
-      <c r="P18" s="11" t="e">
+      <c r="P18" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="13" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>131.5</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>216</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>60.879629999999999</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="L19" s="18">
+      <c r="L19" s="17">
         <v>216</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P19" s="11" t="e">
+      <c r="P19" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="13" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>26</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>360</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>7.2222223000000003</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="18">
+      <c r="L20" s="17">
         <v>360</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P20" s="11" t="e">
+      <c r="P20" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="13" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>10</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>82</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>12.195122</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="18">
+      <c r="L21" s="17">
         <v>82</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="11" t="e">
+      <c r="P21" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="12" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>1</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>196</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>0.51020410000000005</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="K22" s="4"/>
-      <c r="L22" s="18">
+      <c r="L22" s="17">
         <v>196</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="11" t="e">
+      <c r="P22" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="L23" s="18"/>
-      <c r="P23" s="11"/>
+      <c r="L23" s="17"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="P24" s="11"/>
+      <c r="L24" s="17"/>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>39370</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <v>70560</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <v>55.796486000000002</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="17">
         <v>70560</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="11" t="e">
+      <c r="P25" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="16" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>3708</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>28800</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <v>12.875</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="17">
         <v>28800</v>
       </c>
       <c r="M26" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" s="11" t="e">
+      <c r="P26" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="16" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <v>49933</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="15">
         <v>141120</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="15">
         <v>35.383360000000003</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="17">
         <v>141120</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" s="11" t="e">
+      <c r="P27" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="16" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>154.5</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <v>216</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="15">
         <v>71.527780000000007</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="17">
         <v>216</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="11" t="e">
+      <c r="P28" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="16" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <v>32</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <v>360</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="15">
         <v>8.8888890000000007</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="17">
         <v>360</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" s="11" t="e">
+      <c r="P29" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>10</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <v>82</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="15">
         <v>12.195122</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="17">
         <v>82</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" s="11" t="e">
+      <c r="P30" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <v>1</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="15">
         <v>196</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="15">
         <v>0.51020410000000005</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="17">
         <v>196</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P31" s="11" t="e">
+      <c r="P31" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J32" s="4"/>
-      <c r="P32" s="11"/>
+      <c r="P32" s="10"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
@@ -1431,208 +1431,208 @@
       <c r="J33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="11"/>
+      <c r="P33" s="10"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="17">
         <v>31507</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="17">
         <v>70560</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <v>44.65278</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="17">
         <v>70560</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P34" s="11" t="e">
+      <c r="P34" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="17">
         <v>1721</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="17">
         <v>28800</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="17">
         <v>5.9756947</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="17">
         <v>28800</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P35" s="11" t="e">
+      <c r="P35" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="17">
         <v>31113</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="17">
         <v>141120</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="17">
         <v>22.047194000000001</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="17">
         <v>141120</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P36" s="11" t="e">
+      <c r="P36" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="17">
         <v>110</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="17">
         <v>216</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="17">
         <v>50.925930000000001</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="17">
         <v>216</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P37" s="11" t="e">
+      <c r="P37" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="17">
         <v>4</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="17">
         <v>360</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="17">
         <v>1.1111112000000001</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="17">
         <v>360</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P38" s="11" t="e">
+      <c r="P38" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="17">
         <v>10</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="17">
         <v>82</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="17">
         <v>12.195122</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="17">
         <v>82</v>
       </c>
       <c r="M39" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P39" s="11" t="e">
+      <c r="P39" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="17">
         <v>1</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="17">
         <v>196</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="17">
         <v>0.51020410000000005</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L40" s="17">
         <v>196</v>
       </c>
       <c r="M40" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P40" s="11" t="e">
+      <c r="P40" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="J41" s="4"/>
-      <c r="L41" s="18"/>
-      <c r="P41" s="11"/>
+      <c r="L41" s="17"/>
+      <c r="P41" s="10"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
@@ -1641,195 +1641,251 @@
       <c r="J42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="18"/>
-      <c r="P42" s="11"/>
+      <c r="L42" s="17"/>
+      <c r="P42" s="10"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="E43" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="18">
+        <v>53049</v>
+      </c>
+      <c r="G43" s="18">
+        <v>70560</v>
+      </c>
+      <c r="H43" s="18">
+        <v>75.182820000000007</v>
+      </c>
       <c r="J43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="17">
         <v>70560</v>
       </c>
       <c r="M43" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P43" s="11" t="e">
+      <c r="P43" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="E44" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="18">
+        <v>2809</v>
+      </c>
+      <c r="G44" s="18">
+        <v>28800</v>
+      </c>
+      <c r="H44" s="18">
+        <v>9.7534720000000004</v>
+      </c>
       <c r="J44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L44" s="17">
         <v>28800</v>
       </c>
       <c r="M44" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P44" s="11" t="e">
+      <c r="P44" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="E45" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="18">
+        <v>39680</v>
+      </c>
+      <c r="G45" s="18">
+        <v>141120</v>
+      </c>
+      <c r="H45" s="18">
+        <v>28.117912</v>
+      </c>
       <c r="J45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L45" s="17">
         <v>141120</v>
       </c>
       <c r="M45" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P45" s="11" t="e">
+      <c r="P45" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="E46" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="18">
+        <v>110</v>
+      </c>
+      <c r="G46" s="18">
+        <v>216</v>
+      </c>
+      <c r="H46" s="18">
+        <v>50.925930000000001</v>
+      </c>
       <c r="J46" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L46" s="18">
+      <c r="L46" s="17">
         <v>216</v>
       </c>
       <c r="M46" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P46" s="11" t="e">
+      <c r="P46" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="E47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="18">
+        <v>4</v>
+      </c>
+      <c r="G47" s="18">
+        <v>360</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1.1111112000000001</v>
+      </c>
       <c r="J47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47" s="17">
         <v>360</v>
       </c>
       <c r="M47" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P47" s="11" t="e">
+      <c r="P47" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="E48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="18">
+        <v>10</v>
+      </c>
+      <c r="G48" s="18">
+        <v>82</v>
+      </c>
+      <c r="H48" s="18">
+        <v>12.195122</v>
+      </c>
       <c r="J48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48" s="17">
         <v>82</v>
       </c>
       <c r="M48" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P48" s="11" t="e">
+      <c r="P48" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="E49" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="18">
+        <v>1</v>
+      </c>
+      <c r="G49" s="18">
+        <v>196</v>
+      </c>
+      <c r="H49" s="18">
+        <v>0.51020410000000005</v>
+      </c>
       <c r="J49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49" s="17">
         <v>196</v>
       </c>
       <c r="M49" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P49" s="11" t="e">
+      <c r="P49" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L50" s="18"/>
+      <c r="L50" s="17"/>
     </row>
     <row r="51" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L51" s="18"/>
+      <c r="L51" s="17"/>
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L52" s="18"/>
+      <c r="L52" s="17"/>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L53" s="18"/>
+      <c r="L53" s="17"/>
     </row>
     <row r="54" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L54" s="18"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L55" s="18"/>
+      <c r="L55" s="17"/>
     </row>
     <row r="56" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L56" s="18"/>
+      <c r="L56" s="17"/>
     </row>
     <row r="57" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L57" s="18"/>
+      <c r="L57" s="17"/>
     </row>
     <row r="58" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L58" s="18"/>
+      <c r="L58" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1858,10 +1914,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1898,10 +1954,10 @@
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">

--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83637B75-5AA5-49EA-8261-4C19DE252D89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60374A8B-0C0B-4664-8C24-76EB6F5A7E13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="3465" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
+    <workbookView xWindow="-27045" yWindow="5250" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="specs" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -234,11 +234,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EDEE1-3369-479B-AE07-FACAD3ED1A6B}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,24 +574,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -618,22 +619,22 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="E4" s="19" t="s">
+      <c r="B4" s="22"/>
+      <c r="E4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="J4" s="19" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="J4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
       <c r="O4" s="7" t="s">
         <v>38</v>
       </c>
@@ -699,16 +700,22 @@
       <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="K7">
+        <v>31499</v>
+      </c>
       <c r="L7" s="17">
         <v>70560</v>
       </c>
       <c r="M7" s="8">
         <f>K7/L7</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="10" t="e">
+        <v>0.44641439909297054</v>
+      </c>
+      <c r="O7">
+        <v>28280</v>
+      </c>
+      <c r="P7" s="10">
         <f>O7/K7</f>
-        <v>#DIV/0!</v>
+        <v>0.8978062795644306</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -734,16 +741,22 @@
       <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="K8">
+        <v>1508</v>
+      </c>
       <c r="L8" s="17">
         <v>28800</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" ref="M8:M16" si="0">K8/L8</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="10" t="e">
+        <v>5.2361111111111108E-2</v>
+      </c>
+      <c r="O8">
+        <v>1101</v>
+      </c>
+      <c r="P8" s="10">
         <f t="shared" ref="P8:P49" si="1">O8/K8</f>
-        <v>#DIV/0!</v>
+        <v>0.730106100795756</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -769,16 +782,22 @@
       <c r="J9" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="K9">
+        <v>41445</v>
+      </c>
       <c r="L9" s="17">
         <v>141120</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.29368622448979592</v>
+      </c>
+      <c r="O9">
+        <v>37587</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" si="1"/>
+        <v>0.90691277596815056</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -798,23 +817,29 @@
       <c r="J10" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="K10">
+        <v>124</v>
+      </c>
       <c r="L10" s="17">
         <v>216</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.57407407407407407</v>
+      </c>
+      <c r="O10">
+        <v>124</v>
+      </c>
+      <c r="P10" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="22"/>
       <c r="E11" s="14" t="s">
         <v>27</v>
       </c>
@@ -831,22 +856,31 @@
       <c r="J11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="K11">
+        <v>24</v>
+      </c>
       <c r="L11" s="17">
         <v>360</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="O11">
+        <v>24</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>5568785</v>
+      </c>
       <c r="E12" s="14" t="s">
         <v>30</v>
       </c>
@@ -863,21 +897,30 @@
       <c r="J12" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
       <c r="L12" s="17">
         <v>82</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" si="0"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="P12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
+      </c>
+      <c r="B13">
+        <v>5746542</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>31</v>
@@ -895,21 +938,30 @@
       <c r="J13" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
       <c r="L13" s="17">
         <v>196</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" si="0"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="P13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
+      </c>
+      <c r="B14" s="19">
+        <v>5746542</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14"/>
@@ -922,6 +974,9 @@
       <c r="A15" t="s">
         <v>3</v>
       </c>
+      <c r="B15" s="19">
+        <v>5746542</v>
+      </c>
       <c r="E15" s="6" t="s">
         <v>2</v>
       </c>
@@ -937,6 +992,9 @@
       <c r="A16" t="s">
         <v>4</v>
       </c>
+      <c r="B16" s="19">
+        <v>5746542</v>
+      </c>
       <c r="E16" s="12" t="s">
         <v>25</v>
       </c>
@@ -952,23 +1010,31 @@
       <c r="J16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4">
+        <v>46206</v>
+      </c>
       <c r="L16" s="17">
         <v>70560</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.65484693877551026</v>
+      </c>
+      <c r="O16">
+        <v>42987</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="1"/>
+        <v>0.93033372289313077</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
+      <c r="B17" s="19">
+        <v>5746542</v>
+      </c>
       <c r="E17" s="12" t="s">
         <v>28</v>
       </c>
@@ -984,17 +1050,22 @@
       <c r="J17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4">
+        <v>2312</v>
+      </c>
       <c r="L17" s="17">
         <v>28800</v>
       </c>
       <c r="M17" s="8">
         <f>K17/L17</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.0277777777777781E-2</v>
+      </c>
+      <c r="O17">
+        <v>1905</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.82396193771626303</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1013,17 +1084,22 @@
       <c r="J18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4">
+        <v>53673</v>
+      </c>
       <c r="L18" s="17">
         <v>141120</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" ref="M18:M49" si="2">K18/L18</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.38033588435374149</v>
+      </c>
+      <c r="O18">
+        <v>49815</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.92812028394164658</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1048,17 +1124,22 @@
       <c r="J19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4">
+        <v>131.5</v>
+      </c>
       <c r="L19" s="17">
         <v>216</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.60879629629629628</v>
+      </c>
+      <c r="O19">
+        <v>131.5</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1083,17 +1164,22 @@
       <c r="J20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4">
+        <v>26</v>
+      </c>
       <c r="L20" s="17">
         <v>360</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="O20">
+        <v>26</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1118,17 +1204,22 @@
       <c r="J21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4">
+        <v>10</v>
+      </c>
       <c r="L21" s="17">
         <v>82</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" si="2"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="P21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1153,17 +1244,22 @@
       <c r="J22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
       <c r="L22" s="17">
         <v>196</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" si="2"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="P22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1216,16 +1312,22 @@
       <c r="J25" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="K25">
+        <v>40079</v>
+      </c>
       <c r="L25" s="17">
         <v>70560</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.56801303854875285</v>
+      </c>
+      <c r="O25" s="19">
+        <v>36860</v>
+      </c>
+      <c r="P25" s="10">
+        <f>O25/K25</f>
+        <v>0.91968362484093913</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1250,16 +1352,22 @@
       <c r="J26" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="K26">
+        <v>3811</v>
+      </c>
       <c r="L26" s="17">
         <v>28800</v>
       </c>
       <c r="M26" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.1323263888888889</v>
+      </c>
+      <c r="O26" s="19">
+        <v>3404</v>
+      </c>
+      <c r="P26" s="10">
+        <f>O26/K26</f>
+        <v>0.89320388349514568</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1284,16 +1392,22 @@
       <c r="J27" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="K27">
+        <v>50075</v>
+      </c>
       <c r="L27" s="17">
         <v>141120</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.35483985260770973</v>
+      </c>
+      <c r="O27" s="19">
+        <v>46217</v>
+      </c>
+      <c r="P27" s="10">
+        <f>O27/K27</f>
+        <v>0.92295556665002498</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -1318,16 +1432,22 @@
       <c r="J28" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="K28">
+        <v>154.5</v>
+      </c>
       <c r="L28" s="17">
         <v>216</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="O28" s="19">
+        <v>154.5</v>
+      </c>
+      <c r="P28" s="10">
+        <f>O28/K28</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1352,16 +1472,22 @@
       <c r="J29" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="K29">
+        <v>32</v>
+      </c>
       <c r="L29" s="17">
         <v>360</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="O29" s="19">
+        <v>32</v>
+      </c>
+      <c r="P29" s="10">
+        <f>O29/K29</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -1380,16 +1506,22 @@
       <c r="J30" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
       <c r="L30" s="17">
         <v>82</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" si="2"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="O30" s="19">
         <v>0</v>
       </c>
-      <c r="P30" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="P30" s="10">
+        <f>O30/K30</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -1408,16 +1540,22 @@
       <c r="J31" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
       <c r="L31" s="17">
         <v>196</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" si="2"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="O31" s="19">
         <v>0</v>
       </c>
-      <c r="P31" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="P31" s="10">
+        <f>O31/K31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -1449,16 +1587,22 @@
       <c r="J34" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="K34">
+        <v>32253</v>
+      </c>
       <c r="L34" s="17">
         <v>70560</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.45710034013605444</v>
+      </c>
+      <c r="O34">
+        <v>29034</v>
+      </c>
+      <c r="P34" s="10">
+        <f t="shared" si="1"/>
+        <v>0.90019533066691471</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
@@ -1477,16 +1621,22 @@
       <c r="J35" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="K35">
+        <v>1884</v>
+      </c>
       <c r="L35" s="17">
         <v>28800</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.5416666666666665E-2</v>
+      </c>
+      <c r="O35">
+        <v>1477</v>
+      </c>
+      <c r="P35" s="10">
+        <f t="shared" si="1"/>
+        <v>0.78397027600849256</v>
       </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
@@ -1505,16 +1655,22 @@
       <c r="J36" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="K36">
+        <v>31273</v>
+      </c>
       <c r="L36" s="17">
         <v>141120</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.22160572562358277</v>
+      </c>
+      <c r="O36">
+        <v>27415</v>
+      </c>
+      <c r="P36" s="10">
+        <f t="shared" si="1"/>
+        <v>0.87663479678956291</v>
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
@@ -1533,16 +1689,22 @@
       <c r="J37" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="K37">
+        <v>110</v>
+      </c>
       <c r="L37" s="17">
         <v>216</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="O37">
+        <v>110</v>
+      </c>
+      <c r="P37" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
@@ -1561,16 +1723,22 @@
       <c r="J38" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
       <c r="L38" s="17">
         <v>360</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
@@ -1589,16 +1757,22 @@
       <c r="J39" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
       <c r="L39" s="17">
         <v>82</v>
       </c>
       <c r="M39" s="8">
         <f t="shared" si="2"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="P39" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
@@ -1617,16 +1791,22 @@
       <c r="J40" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
       <c r="L40" s="17">
         <v>196</v>
       </c>
       <c r="M40" s="8">
         <f t="shared" si="2"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="P40" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
@@ -1660,16 +1840,22 @@
       <c r="J43" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="K43">
+        <v>53879</v>
+      </c>
       <c r="L43" s="17">
         <v>70560</v>
       </c>
       <c r="M43" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.76359126984126979</v>
+      </c>
+      <c r="O43">
+        <v>50660</v>
+      </c>
+      <c r="P43" s="10">
+        <f t="shared" si="1"/>
+        <v>0.94025501586889138</v>
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
@@ -1688,16 +1874,22 @@
       <c r="J44" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="K44">
+        <v>3036</v>
+      </c>
       <c r="L44" s="17">
         <v>28800</v>
       </c>
       <c r="M44" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.10541666666666667</v>
+      </c>
+      <c r="O44">
+        <v>2629</v>
+      </c>
+      <c r="P44" s="10">
+        <f t="shared" si="1"/>
+        <v>0.86594202898550721</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
@@ -1716,16 +1908,22 @@
       <c r="J45" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="K45">
+        <v>39842</v>
+      </c>
       <c r="L45" s="17">
         <v>141120</v>
       </c>
       <c r="M45" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.28232709750566892</v>
+      </c>
+      <c r="O45">
+        <v>35984</v>
+      </c>
+      <c r="P45" s="10">
+        <f t="shared" si="1"/>
+        <v>0.90316751167110088</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
@@ -1744,16 +1942,22 @@
       <c r="J46" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="K46">
+        <v>110</v>
+      </c>
       <c r="L46" s="17">
         <v>216</v>
       </c>
       <c r="M46" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="O46">
+        <v>110</v>
+      </c>
+      <c r="P46" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
@@ -1772,16 +1976,22 @@
       <c r="J47" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
       <c r="L47" s="17">
         <v>360</v>
       </c>
       <c r="M47" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
@@ -1800,16 +2010,22 @@
       <c r="J48" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
       <c r="L48" s="17">
         <v>82</v>
       </c>
       <c r="M48" s="8">
         <f t="shared" si="2"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="P48" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
@@ -1828,16 +2044,22 @@
       <c r="J49" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
       <c r="L49" s="17">
         <v>196</v>
       </c>
       <c r="M49" s="8">
         <f t="shared" si="2"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="P49" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.25">
@@ -1869,23 +2091,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1914,10 +2136,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1954,10 +2176,10 @@
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">

--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60374A8B-0C0B-4664-8C24-76EB6F5A7E13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D161BA25-9C76-4CAE-BF40-C96B96C06451}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="5250" windowWidth="24285" windowHeight="15885" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
+    <workbookView xWindow="-27255" yWindow="5205" windowWidth="24285" windowHeight="15885" activeTab="1" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="specs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
   <si>
     <t>Bitstream sizes</t>
   </si>
@@ -106,9 +106,6 @@
     <t xml:space="preserve"> proportion of static-to-reconfigurable area is larger, memory savings can be realized"</t>
   </si>
   <si>
-    <t>inf/sec</t>
-  </si>
-  <si>
     <t>LUT</t>
   </si>
   <si>
@@ -149,13 +146,355 @@
   </si>
   <si>
     <t>Recon (Accelerator)</t>
+  </si>
+  <si>
+    <t>img/sec</t>
+  </si>
+  <si>
+    <t>1000 x 1127</t>
+  </si>
+  <si>
+    <t>24 bit</t>
+  </si>
+  <si>
+    <t>jpeg</t>
+  </si>
+  <si>
+    <t>Inference took 1625.00 microseconds</t>
+  </si>
+  <si>
+    <t>Classification rate: 615.38 images per second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [CLASS]    [RANKING]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Airplane        49</t>
+  </si>
+  <si>
+    <t>Automobile       217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Bird       -65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Cat       -61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Deer         5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Dog       -29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Frog       -33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Horse       -33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ship       -35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Truck       -41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Airplane       243</t>
+  </si>
+  <si>
+    <t>Automobile       -17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Bird       -15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Cat       -39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Deer       -31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Dog       -17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Frog       -13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Horse       -27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ship        -9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Truck       -27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Airplane       125</t>
+  </si>
+  <si>
+    <t>Automobile        39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Bird        61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Cat        51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Deer       -63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Dog        -7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Frog       -27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Horse        -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ship       -15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Truck       -15</t>
+  </si>
+  <si>
+    <t>cnvW1A1 - Standalone</t>
+  </si>
+  <si>
+    <t>cnvW1A2 - Standalone</t>
+  </si>
+  <si>
+    <t>Inference took 1579.00 microseconds</t>
+  </si>
+  <si>
+    <t>Classification rate: 633.31 images per second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Airplane       258</t>
+  </si>
+  <si>
+    <t>Automobile       417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Bird       233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Cat       206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Deer       238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Dog       215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Frog       222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Horse       238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ship       236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Truck       249</t>
+  </si>
+  <si>
+    <t>Inference took 1580.00 microseconds</t>
+  </si>
+  <si>
+    <t>Classification rate: 632.91 images per second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Airplane       412</t>
+  </si>
+  <si>
+    <t>Automobile       237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Cat       214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Deer       248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Dog       239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Frog       242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Horse       234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ship       250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Truck       247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Airplane       268</t>
+  </si>
+  <si>
+    <t>Automobile       241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Bird       387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Cat       262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Deer       284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Dog       289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Frog       236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Horse       248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ship       230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Truck       227</t>
+  </si>
+  <si>
+    <t>Inference took 4864.00 microseconds</t>
+  </si>
+  <si>
+    <t>Classification rate: 205.59 images per second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Airplane       -26</t>
+  </si>
+  <si>
+    <t>Automobile       232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Bird       -24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Cat       -32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Deer       -14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Dog        -9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Frog       -43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Horse       -25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ship       -13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Truck       -11</t>
+  </si>
+  <si>
+    <t>Inference took 4863.00 microseconds</t>
+  </si>
+  <si>
+    <t>Classification rate: 205.63 images per second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Airplane       229</t>
+  </si>
+  <si>
+    <t>Automobile         7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Bird       -11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Cat       -36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Deer       -17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Dog       -23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Frog       -28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ship        -7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Truck       -18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Airplane        63</t>
+  </si>
+  <si>
+    <t>Automobile       -14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Bird       167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Cat        -6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Deer       -23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Dog        -5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Horse       -14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ship         9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Truck       -21</t>
+  </si>
+  <si>
+    <t>cnvW2A2 - Standalone</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inf time </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µs</t>
+    </r>
+  </si>
+  <si>
+    <t>inf time µs</t>
+  </si>
+  <si>
+    <t>Config Times:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +525,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -229,7 +587,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -239,6 +596,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -256,6 +632,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56694</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FD9F89-EFAD-47EA-9B89-AAA205EC476B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="8286750"/>
+          <a:ext cx="3647619" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3571429</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B78A67-C0CA-44FD-8159-136215FF27B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="8286750"/>
+          <a:ext cx="3571429" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56694</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40C1810-715D-4088-87D3-A8D47CFA82D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573250" y="8286750"/>
+          <a:ext cx="3647619" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EDEE1-3369-479B-AE07-FACAD3ED1A6B}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,13 +1143,13 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="J4" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
       <c r="O4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -647,20 +1160,20 @@
         <v>5568785</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -684,26 +1197,26 @@
       <c r="B7" s="11">
         <v>5568785</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="13">
-        <v>30815</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="E7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="19">
+        <v>31231</v>
+      </c>
+      <c r="G7" s="19">
         <v>70560</v>
       </c>
-      <c r="H7" s="13">
-        <v>43.672049999999999</v>
+      <c r="H7" s="19">
+        <v>44.261623</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <v>31499</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>70560</v>
       </c>
       <c r="M7" s="8">
@@ -725,26 +1238,26 @@
       <c r="B8" s="11">
         <v>5568785</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="19">
         <v>1404</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="19">
         <v>28800</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="19">
         <v>4.875</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>1508</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <v>28800</v>
       </c>
       <c r="M8" s="8">
@@ -766,26 +1279,26 @@
       <c r="B9" s="11">
         <v>5568785</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="13">
-        <v>41292</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="E9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="19">
+        <v>41307</v>
+      </c>
+      <c r="G9" s="19">
         <v>141120</v>
       </c>
-      <c r="H9" s="13">
-        <v>29.260202</v>
+      <c r="H9" s="19">
+        <v>29.270834000000001</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>41445</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>141120</v>
       </c>
       <c r="M9" s="8">
@@ -801,26 +1314,26 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="19">
         <v>124</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="19">
         <v>216</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="19">
         <v>57.407409999999999</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>124</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <v>216</v>
       </c>
       <c r="M10" s="8">
@@ -840,26 +1353,26 @@
         <v>11</v>
       </c>
       <c r="B11" s="22"/>
-      <c r="E11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="19">
         <v>24</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="19">
         <v>360</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="19">
         <v>6.6666670000000003</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11">
         <v>24</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="16">
         <v>360</v>
       </c>
       <c r="M11" s="8">
@@ -881,26 +1394,26 @@
       <c r="B12">
         <v>5568785</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="19">
         <v>10</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="19">
         <v>82</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="19">
         <v>12.195122</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12">
         <v>10</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="16">
         <v>82</v>
       </c>
       <c r="M12" s="8">
@@ -922,26 +1435,26 @@
       <c r="B13">
         <v>5746542</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="E13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="19">
+        <v>2</v>
+      </c>
+      <c r="G13" s="19">
         <v>196</v>
       </c>
-      <c r="H13" s="13">
-        <v>0.51020410000000005</v>
+      <c r="H13" s="19">
+        <v>1.0204082000000001</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="16">
         <v>196</v>
       </c>
       <c r="M13" s="8">
@@ -960,21 +1473,21 @@
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>5746542</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="J14" s="4"/>
-      <c r="L14" s="17"/>
+      <c r="L14" s="16"/>
       <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>5746542</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -985,18 +1498,18 @@
       <c r="J15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="16"/>
       <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>5746542</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="11">
         <v>45540</v>
@@ -1008,12 +1521,12 @@
         <v>64.540819999999997</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="4">
         <v>46206</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="16">
         <v>70560</v>
       </c>
       <c r="M16" s="8">
@@ -1032,11 +1545,11 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>5746542</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="11">
         <v>2300</v>
@@ -1048,12 +1561,12 @@
         <v>7.9861110000000002</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="4">
         <v>2312</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="16">
         <v>28800</v>
       </c>
       <c r="M17" s="8">
@@ -1070,7 +1583,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E18" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="11">
         <v>53522</v>
@@ -1082,12 +1595,12 @@
         <v>37.926586</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18" s="4">
         <v>53673</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="16">
         <v>141120</v>
       </c>
       <c r="M18" s="8">
@@ -1103,14 +1616,14 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="11">
         <v>131.5</v>
@@ -1122,12 +1635,12 @@
         <v>60.879629999999999</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="4">
         <v>131.5</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="16">
         <v>216</v>
       </c>
       <c r="M19" s="8">
@@ -1143,14 +1656,14 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="11">
         <v>26</v>
@@ -1162,12 +1675,12 @@
         <v>7.2222223000000003</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20" s="4">
         <v>26</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="16">
         <v>360</v>
       </c>
       <c r="M20" s="8">
@@ -1183,14 +1696,14 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="11">
         <v>10</v>
@@ -1202,12 +1715,12 @@
         <v>12.195122</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21" s="4">
         <v>10</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="16">
         <v>82</v>
       </c>
       <c r="M21" s="8">
@@ -1223,14 +1736,14 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="11">
         <v>1</v>
@@ -1242,12 +1755,12 @@
         <v>0.51020410000000005</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K22" s="4">
         <v>1</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="16">
         <v>196</v>
       </c>
       <c r="M22" s="8">
@@ -1263,298 +1776,298 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="L23" s="17"/>
+      <c r="L23" s="16"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="17"/>
+      <c r="L24" s="16"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="15">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="14">
         <v>39370</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <v>70560</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <v>55.796486000000002</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K25">
         <v>40079</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="16">
         <v>70560</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" si="2"/>
         <v>0.56801303854875285</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="18">
         <v>36860</v>
       </c>
       <c r="P25" s="10">
-        <f>O25/K25</f>
+        <f t="shared" ref="P25:P31" si="3">O25/K25</f>
         <v>0.91968362484093913</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="14">
         <v>3708</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>28800</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <v>12.875</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K26">
         <v>3811</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="16">
         <v>28800</v>
       </c>
       <c r="M26" s="8">
         <f t="shared" si="2"/>
         <v>0.1323263888888889</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="18">
         <v>3404</v>
       </c>
       <c r="P26" s="10">
-        <f>O26/K26</f>
+        <f t="shared" si="3"/>
         <v>0.89320388349514568</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="15">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="14">
         <v>49933</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>141120</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>35.383360000000003</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K27">
         <v>50075</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="16">
         <v>141120</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" si="2"/>
         <v>0.35483985260770973</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O27" s="18">
         <v>46217</v>
       </c>
       <c r="P27" s="10">
-        <f>O27/K27</f>
+        <f t="shared" si="3"/>
         <v>0.92295556665002498</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="15">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="14">
         <v>154.5</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <v>216</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>71.527780000000007</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K28">
         <v>154.5</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="16">
         <v>216</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" si="2"/>
         <v>0.71527777777777779</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O28" s="18">
         <v>154.5</v>
       </c>
       <c r="P28" s="10">
-        <f>O28/K28</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="15">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="14">
         <v>32</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <v>360</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>8.8888890000000007</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K29">
         <v>32</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="16">
         <v>360</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" si="2"/>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="18">
         <v>32</v>
       </c>
       <c r="P29" s="10">
-        <f>O29/K29</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="15">
+      <c r="E30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="14">
         <v>10</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <v>82</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>12.195122</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K30">
         <v>10</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="16">
         <v>82</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" si="2"/>
         <v>0.12195121951219512</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="18">
         <v>0</v>
       </c>
       <c r="P30" s="10">
-        <f>O30/K30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="15">
+      <c r="E31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="14">
         <v>1</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <v>196</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>0.51020410000000005</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="16">
         <v>196</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" si="2"/>
         <v>5.1020408163265302E-3</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O31" s="18">
         <v>0</v>
       </c>
       <c r="P31" s="10">
-        <f>O31/K31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1572,25 +2085,25 @@
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="17">
+      <c r="E34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="16">
         <v>31507</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="16">
         <v>70560</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <v>44.65278</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34">
         <v>32253</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="16">
         <v>70560</v>
       </c>
       <c r="M34" s="8">
@@ -1606,25 +2119,25 @@
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="17">
+      <c r="E35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="16">
         <v>1721</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="16">
         <v>28800</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="16">
         <v>5.9756947</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K35">
         <v>1884</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="16">
         <v>28800</v>
       </c>
       <c r="M35" s="8">
@@ -1640,25 +2153,25 @@
       </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="17">
+      <c r="E36" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="16">
         <v>31113</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="16">
         <v>141120</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="16">
         <v>22.047194000000001</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K36">
         <v>31273</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="16">
         <v>141120</v>
       </c>
       <c r="M36" s="8">
@@ -1674,25 +2187,25 @@
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="17">
+      <c r="E37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="16">
         <v>110</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="16">
         <v>216</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="16">
         <v>50.925930000000001</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K37">
         <v>110</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="16">
         <v>216</v>
       </c>
       <c r="M37" s="8">
@@ -1708,25 +2221,25 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="17">
+      <c r="E38" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="16">
         <v>4</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="16">
         <v>360</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="16">
         <v>1.1111112000000001</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K38">
         <v>4</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="16">
         <v>360</v>
       </c>
       <c r="M38" s="8">
@@ -1742,25 +2255,25 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="17">
+      <c r="E39" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="16">
         <v>10</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="16">
         <v>82</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="16">
         <v>12.195122</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K39">
         <v>10</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="16">
         <v>82</v>
       </c>
       <c r="M39" s="8">
@@ -1776,25 +2289,25 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="17">
+      <c r="E40" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="16">
         <v>1</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="16">
         <v>196</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="16">
         <v>0.51020410000000005</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="16">
         <v>196</v>
       </c>
       <c r="M40" s="8">
@@ -1811,7 +2324,7 @@
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="J41" s="4"/>
-      <c r="L41" s="17"/>
+      <c r="L41" s="16"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
@@ -1821,29 +2334,29 @@
       <c r="J42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="17"/>
+      <c r="L42" s="16"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="18">
+      <c r="E43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="17">
         <v>53049</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="17">
         <v>70560</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="17">
         <v>75.182820000000007</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43">
         <v>53879</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="16">
         <v>70560</v>
       </c>
       <c r="M43" s="8">
@@ -1859,25 +2372,25 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="18">
+      <c r="E44" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="17">
         <v>2809</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="17">
         <v>28800</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="17">
         <v>9.7534720000000004</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K44">
         <v>3036</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="16">
         <v>28800</v>
       </c>
       <c r="M44" s="8">
@@ -1893,25 +2406,25 @@
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E45" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="18">
+      <c r="E45" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="17">
         <v>39680</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="17">
         <v>141120</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="17">
         <v>28.117912</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K45">
         <v>39842</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="16">
         <v>141120</v>
       </c>
       <c r="M45" s="8">
@@ -1927,25 +2440,25 @@
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E46" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="18">
+      <c r="E46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="17">
         <v>110</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="17">
         <v>216</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="17">
         <v>50.925930000000001</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K46">
         <v>110</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="16">
         <v>216</v>
       </c>
       <c r="M46" s="8">
@@ -1961,25 +2474,25 @@
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E47" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="18">
+      <c r="E47" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="17">
         <v>4</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="17">
         <v>360</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="17">
         <v>1.1111112000000001</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K47">
         <v>4</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="16">
         <v>360</v>
       </c>
       <c r="M47" s="8">
@@ -1995,25 +2508,25 @@
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E48" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="18">
+      <c r="E48" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="17">
         <v>10</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="17">
         <v>82</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="17">
         <v>12.195122</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K48">
         <v>10</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="16">
         <v>82</v>
       </c>
       <c r="M48" s="8">
@@ -2029,25 +2542,25 @@
       </c>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E49" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="18">
+      <c r="E49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="17">
         <v>1</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="17">
         <v>196</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="17">
         <v>0.51020410000000005</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="16">
         <v>196</v>
       </c>
       <c r="M49" s="8">
@@ -2063,51 +2576,51 @@
       </c>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L50" s="17"/>
+      <c r="L50" s="16"/>
     </row>
     <row r="51" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L51" s="17"/>
+      <c r="L51" s="16"/>
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L52" s="17"/>
+      <c r="L52" s="16"/>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L53" s="17"/>
+      <c r="L53" s="16"/>
     </row>
     <row r="54" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L54" s="17"/>
+      <c r="L54" s="16"/>
     </row>
     <row r="55" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L55" s="17"/>
+      <c r="L55" s="16"/>
     </row>
     <row r="56" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L56" s="17"/>
+      <c r="L56" s="16"/>
     </row>
     <row r="57" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L57" s="17"/>
+      <c r="L57" s="16"/>
     </row>
     <row r="58" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="L58" s="17"/>
+      <c r="L58" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2116,112 +2629,713 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF2056F-DF7E-47B5-B622-DED286DC8D14}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="19"/>
+    <col min="9" max="9" width="53.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="19">
+        <v>632.91</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1580</v>
+      </c>
+      <c r="D4">
+        <v>2.39</v>
+      </c>
+      <c r="E4">
+        <v>417851</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="19">
+        <v>615.38</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1625</v>
+      </c>
+      <c r="D5">
+        <v>0.38</v>
+      </c>
+      <c r="E5">
+        <v>2645137</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="19">
+        <v>205.68</v>
+      </c>
+      <c r="C6" s="19">
+        <v>4862</v>
+      </c>
+      <c r="D6">
+        <v>0.22</v>
+      </c>
+      <c r="E6">
+        <v>4571086</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="I7" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B9" s="28">
+        <v>118884.86</v>
+      </c>
+      <c r="C9" s="19">
+        <v>8.41</v>
+      </c>
+      <c r="D9">
+        <v>55.92</v>
+      </c>
+      <c r="E9">
+        <v>17883.099999999999</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="B10" s="30">
+        <v>118887.69</v>
+      </c>
+      <c r="C10" s="19">
+        <v>8.41</v>
+      </c>
+      <c r="D10">
+        <v>7.76</v>
+      </c>
+      <c r="E10">
+        <v>128907.7</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="19"/>
+      <c r="I11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="I12" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B14" s="19">
+        <v>615.76</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1624</v>
+      </c>
+      <c r="D14">
+        <v>0.38</v>
+      </c>
+      <c r="E14">
+        <v>2647905</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B15" s="19">
+        <v>632.80999999999995</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1580</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2.39</v>
+      </c>
+      <c r="E15" s="19">
+        <v>417870</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B16" s="19">
+        <v>615.24</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1625</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2644840</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B17" s="19">
+        <v>205.64</v>
+      </c>
+      <c r="C17" s="19">
+        <v>4863</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="E17" s="19">
+        <v>4572012</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I19" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B20" s="28">
+        <v>118885.11</v>
+      </c>
+      <c r="C20" s="19">
+        <v>8.41</v>
+      </c>
+      <c r="D20" s="19">
+        <v>55.8</v>
+      </c>
+      <c r="E20" s="19">
+        <v>17921.099999999999</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B21" s="30">
+        <v>118887.05</v>
+      </c>
+      <c r="C21" s="19">
+        <v>8.41</v>
+      </c>
+      <c r="D21" s="19">
+        <v>7.77</v>
+      </c>
+      <c r="E21" s="19">
+        <v>128700.1</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I22" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I23" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I25" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I26" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I27" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="M29" s="25"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I31" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I33" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I34" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I35" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I36" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I37" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I38" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I39" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I40" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I41" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I42" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="K44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D161BA25-9C76-4CAE-BF40-C96B96C06451}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D25C8A-3DB1-46CD-A4A4-58E2FE2DC895}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="5205" windowWidth="24285" windowHeight="15885" activeTab="1" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
+    <workbookView xWindow="2115" yWindow="0" windowWidth="24285" windowHeight="15885" activeTab="1" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="specs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="155">
   <si>
     <t>Bitstream sizes</t>
   </si>
@@ -488,6 +488,27 @@
   </si>
   <si>
     <t>Config Times:</t>
+  </si>
+  <si>
+    <t>full bitsream load time</t>
+  </si>
+  <si>
+    <t>partial/full/delta cnvW1A1</t>
+  </si>
+  <si>
+    <t>partial/full/delta cnvW1A2</t>
+  </si>
+  <si>
+    <t>partial/full/delta cnvW2A2</t>
+  </si>
+  <si>
+    <t>partial/full/delta lfcW1A1</t>
+  </si>
+  <si>
+    <t>partial/full/delta lfcW1A2</t>
+  </si>
+  <si>
+    <t>(see jupyter notebook in config_times)</t>
   </si>
 </sst>
 </file>
@@ -566,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -597,11 +618,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -615,6 +632,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1070,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EDEE1-3369-479B-AE07-FACAD3ED1A6B}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,24 +1109,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="31"/>
+      <c r="E1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1132,22 +1154,22 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="B4" s="31"/>
+      <c r="E4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="J4" s="22" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="J4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
       <c r="O4" s="7" t="s">
         <v>37</v>
       </c>
@@ -1349,10 +1371,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="31"/>
       <c r="E11" s="20" t="s">
         <v>26</v>
       </c>
@@ -1616,12 +1638,12 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="12" t="s">
         <v>25</v>
       </c>
@@ -1656,12 +1678,12 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="12" t="s">
         <v>26</v>
       </c>
@@ -1696,12 +1718,12 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="12" t="s">
         <v>29</v>
       </c>
@@ -1736,12 +1758,12 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="11" t="s">
         <v>30</v>
       </c>
@@ -1776,24 +1798,24 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="5"/>
       <c r="J23" s="5"/>
       <c r="L23" s="16"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
@@ -1804,12 +1826,12 @@
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="15" t="s">
         <v>24</v>
       </c>
@@ -1844,12 +1866,12 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="14" t="s">
         <v>27</v>
       </c>
@@ -1884,12 +1906,12 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="14" t="s">
         <v>28</v>
       </c>
@@ -1924,12 +1946,12 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="14" t="s">
         <v>25</v>
       </c>
@@ -1964,12 +1986,12 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="14" t="s">
         <v>26</v>
       </c>
@@ -2604,23 +2626,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2629,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF2056F-DF7E-47B5-B622-DED286DC8D14}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,13 +2686,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2690,36 +2712,36 @@
       <c r="E2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="31"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2739,13 +2761,13 @@
       <c r="E4">
         <v>417851</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2765,13 +2787,13 @@
       <c r="E5">
         <v>2645137</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="24" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2791,26 +2813,26 @@
       <c r="E6">
         <v>4571086</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="24" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2819,13 +2841,13 @@
       <c r="C8" s="19"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2833,7 +2855,7 @@
       <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>118884.86</v>
       </c>
       <c r="C9" s="19">
@@ -2845,13 +2867,13 @@
       <c r="E9">
         <v>17883.099999999999</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="24" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2859,7 +2881,7 @@
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="28">
         <v>118887.69</v>
       </c>
       <c r="C10" s="19">
@@ -2871,40 +2893,40 @@
       <c r="E10">
         <v>128907.7</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="19"/>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="24" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2916,13 +2938,13 @@
       <c r="C13" s="19"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="24" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2942,13 +2964,13 @@
       <c r="E14">
         <v>2647905</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="24" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2968,9 +2990,9 @@
       <c r="E15" s="19">
         <v>417870</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="I15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -2988,13 +3010,13 @@
       <c r="E16" s="19">
         <v>2644840</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="24" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3014,35 +3036,35 @@
       <c r="E17" s="19">
         <v>4572012</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="24" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3050,7 +3072,7 @@
       <c r="A20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="26">
         <v>118885.11</v>
       </c>
       <c r="C20" s="19">
@@ -3062,13 +3084,13 @@
       <c r="E20" s="19">
         <v>17921.099999999999</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="24" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3076,7 +3098,7 @@
       <c r="A21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="28">
         <v>118887.05</v>
       </c>
       <c r="C21" s="19">
@@ -3088,35 +3110,35 @@
       <c r="E21" s="19">
         <v>128700.1</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="24" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="K23" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="24" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3124,210 +3146,285 @@
       <c r="A24" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="M24" s="24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I25" s="26" t="s">
+      <c r="A25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="26" t="s">
+      <c r="M25" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I26" s="26" t="s">
+      <c r="A26" s="22">
+        <v>0.23940579652800001</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="26" t="s">
+      <c r="M26" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I27" s="26" t="s">
+      <c r="A27" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I27" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="24" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I28" s="26" t="s">
+      <c r="A28" s="22">
+        <v>0.33725983205499999</v>
+      </c>
+      <c r="I28" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="M28" s="24" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="M29" s="25"/>
+      <c r="A29" s="22">
+        <v>0.23976935625099999</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I30" s="26" t="s">
+      <c r="A30" s="22">
+        <v>-9.7490475803899995E-2</v>
+      </c>
+      <c r="I30" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="26" t="s">
+      <c r="M30" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I31" s="26" t="s">
+      <c r="A31" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="M31" s="26" t="s">
+      <c r="M31" s="24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I32" s="26" t="s">
+      <c r="A32" s="22">
+        <v>0.33749884674199998</v>
+      </c>
+      <c r="I32" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I33" s="26" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>0.239964883327</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I34" s="26" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>-9.7533963414800001E-2</v>
+      </c>
+      <c r="I34" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I35" s="26" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M35" s="26" t="s">
+      <c r="M35" s="24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I36" s="26" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>0.33786964173200001</v>
+      </c>
+      <c r="I36" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="K36" s="26" t="s">
+      <c r="K36" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="M36" s="26" t="s">
+      <c r="M36" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I37" s="26" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>0.24014578104000001</v>
+      </c>
+      <c r="I37" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="K37" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="M37" s="26" t="s">
+      <c r="M37" s="24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I38" s="26" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>-9.7723860691999995E-2</v>
+      </c>
+      <c r="I38" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="K38" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="M38" s="24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I39" s="26" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I39" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="26" t="s">
+      <c r="M39" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I40" s="26" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>0.35142725229299998</v>
+      </c>
+      <c r="I40" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="M40" s="26" t="s">
+      <c r="M40" s="24" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I41" s="26" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>0.24016671710500001</v>
+      </c>
+      <c r="I41" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K41" s="26" t="s">
+      <c r="K41" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="M41" s="26" t="s">
+      <c r="M41" s="24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I42" s="26" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>-0.11126053518700001</v>
+      </c>
+      <c r="I42" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K42" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M42" s="26" t="s">
+      <c r="M42" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>0.33785920536399999</v>
+      </c>
       <c r="K44" s="19"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>0.24036838531499999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>-9.7490820049000004E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/IoT-recon.xlsx
+++ b/IoT-recon.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam\Documents\Vivado_Projects\IoT-Recon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D25C8A-3DB1-46CD-A4A4-58E2FE2DC895}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB48AA1-A00F-4A27-B8D3-9E330B0A5567}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="0" windowWidth="24285" windowHeight="15885" activeTab="1" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
+    <workbookView xWindow="-28920" yWindow="3585" windowWidth="29040" windowHeight="18240" xr2:uid="{48D670A6-BDBD-444B-9E90-AD8629F39DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="specs" sheetId="1" r:id="rId1"/>
     <sheet name="performance" sheetId="2" r:id="rId2"/>
+    <sheet name="Power" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="181">
   <si>
     <t>Bitstream sizes</t>
   </si>
@@ -510,11 +515,110 @@
   <si>
     <t>(see jupyter notebook in config_times)</t>
   </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Dynamic Reconfiguration</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Inference Times</t>
+  </si>
+  <si>
+    <t>Dynamic Reconfiguration:</t>
+  </si>
+  <si>
+    <t>frames/s</t>
+  </si>
+  <si>
+    <r>
+      <t>inference
+time (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µs)</t>
+    </r>
+  </si>
+  <si>
+    <t>Auxillary</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>% of Available:</t>
+  </si>
+  <si>
+    <t>Partial Load Time</t>
+  </si>
+  <si>
+    <t>Standalone Load Time</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>% of Overall Design</t>
+  </si>
+  <si>
+    <t>Total Power</t>
+  </si>
+  <si>
+    <t>Accelerator Power</t>
+  </si>
+  <si>
+    <t>Inference per Second</t>
+  </si>
+  <si>
+    <t>Accelerator Milliwatts per Inference</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Resource 
+Utilized</t>
+  </si>
+  <si>
+    <t>% of Total
+ Design</t>
+  </si>
+  <si>
+    <t>CLB LUTs (10^3)</t>
+  </si>
+  <si>
+    <t>Auxiliary</t>
+  </si>
+  <si>
+    <t>% Avail.</t>
+  </si>
+  <si>
+    <t>CLB LUTs 
+(10^3)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -637,6 +741,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1092,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EDEE1-3369-479B-AE07-FACAD3ED1A6B}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,12 +1758,12 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="12" t="s">
         <v>25</v>
       </c>
@@ -1678,12 +1798,12 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="12" t="s">
         <v>26</v>
       </c>
@@ -1718,12 +1838,12 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="12" t="s">
         <v>29</v>
       </c>
@@ -1758,12 +1878,12 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="11" t="s">
         <v>30</v>
       </c>
@@ -1798,24 +1918,24 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="5"/>
       <c r="J23" s="5"/>
       <c r="L23" s="16"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
@@ -1826,12 +1946,12 @@
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="15" t="s">
         <v>24</v>
       </c>
@@ -1866,12 +1986,12 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="14" t="s">
         <v>27</v>
       </c>
@@ -1906,12 +2026,12 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="14" t="s">
         <v>28</v>
       </c>
@@ -1946,12 +2066,12 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="14" t="s">
         <v>25</v>
       </c>
@@ -1986,12 +2106,12 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="14" t="s">
         <v>26</v>
       </c>
@@ -2060,6 +2180,9 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
       <c r="E31" s="14" t="s">
         <v>30</v>
       </c>
@@ -2626,23 +2749,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2651,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF2056F-DF7E-47B5-B622-DED286DC8D14}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,7 +2794,7 @@
     <col min="13" max="13" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2696,7 +2819,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2722,7 +2845,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
@@ -2745,7 +2868,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
@@ -2771,7 +2894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
@@ -2797,7 +2920,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
@@ -2823,7 +2946,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="I7" s="24" t="s">
@@ -2835,8 +2958,11 @@
       <c r="M7" s="24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="F8" s="1"/>
@@ -2850,8 +2976,14 @@
       <c r="M8" s="24" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
@@ -2876,8 +3008,14 @@
       <c r="M9" s="24" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>0.9849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
@@ -2903,7 +3041,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="27"/>
       <c r="C11" s="19"/>
@@ -2917,7 +3055,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="I12" s="24" t="s">
@@ -2930,7 +3068,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>11</v>
       </c>
@@ -2948,7 +3086,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
@@ -2974,7 +3112,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>1</v>
       </c>
@@ -2994,7 +3132,7 @@
       <c r="K15" s="23"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>2</v>
       </c>
@@ -3435,4 +3573,1826 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F9E230-D57D-4682-905F-BED3B8A633A9}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.778</v>
+      </c>
+      <c r="C2">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="D2" s="29">
+        <v>632.80999999999995</v>
+      </c>
+      <c r="E2" s="38">
+        <f>1000*C2/D2</f>
+        <v>0.9497321470899639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4.32</v>
+      </c>
+      <c r="C3">
+        <v>2.105</v>
+      </c>
+      <c r="D3" s="29">
+        <v>615.24</v>
+      </c>
+      <c r="E3" s="38">
+        <f t="shared" ref="E3:E6" si="0">1000*C3/D3</f>
+        <v>3.4214290358234183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3.03</v>
+      </c>
+      <c r="C4">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="D4" s="29">
+        <v>205.64</v>
+      </c>
+      <c r="E4" s="38">
+        <f t="shared" si="0"/>
+        <v>9.1227387667768927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3.153</v>
+      </c>
+      <c r="C5">
+        <v>1.89</v>
+      </c>
+      <c r="D5" s="29">
+        <v>118885.11</v>
+      </c>
+      <c r="E5" s="37">
+        <f t="shared" si="0"/>
+        <v>1.5897701570869557E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4.7850000000000001</v>
+      </c>
+      <c r="C6">
+        <v>2.552</v>
+      </c>
+      <c r="D6" s="29">
+        <v>118887.05</v>
+      </c>
+      <c r="E6" s="37">
+        <f t="shared" si="0"/>
+        <v>2.1465752577761833E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39877D95-2284-4A74-92AF-55AACC319F61}">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="29">
+        <v>28280</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.8978062795644306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="29">
+        <v>37587</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.90691277596815056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="29">
+        <v>124</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="29">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="10"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="29">
+        <v>42987</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.93033372289313077</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="29">
+        <v>49815</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.92812028394164658</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="29">
+        <v>131.5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="29">
+        <v>26</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="10"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="29">
+        <v>36860</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.91968362484093913</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="29"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="29">
+        <v>46217</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.92295556665002498</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="R14" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="S14" s="41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="29">
+        <v>154.5</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="29">
+        <v>28280</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.8978062795644306</v>
+      </c>
+      <c r="L15" s="29">
+        <v>42987</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0.93033372289313077</v>
+      </c>
+      <c r="N15" s="29">
+        <v>36860</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.91968362484093913</v>
+      </c>
+      <c r="P15" s="29">
+        <v>29034</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0.90019533066691471</v>
+      </c>
+      <c r="R15" s="29">
+        <v>50660</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0.94025501586889138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="29">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="29">
+        <v>37587</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.90691277596815056</v>
+      </c>
+      <c r="L16" s="29">
+        <v>49815</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0.92812028394164658</v>
+      </c>
+      <c r="N16" s="29">
+        <v>46217</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0.92295556665002498</v>
+      </c>
+      <c r="P16" s="29">
+        <v>27415</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0.87663479678956291</v>
+      </c>
+      <c r="R16" s="29">
+        <v>35984</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0.90316751167110088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="10"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="29">
+        <v>124</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="29">
+        <v>131.5</v>
+      </c>
+      <c r="M17" s="10">
+        <v>1</v>
+      </c>
+      <c r="N17" s="29">
+        <v>154.5</v>
+      </c>
+      <c r="O17" s="10">
+        <v>1</v>
+      </c>
+      <c r="P17" s="29">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>1</v>
+      </c>
+      <c r="R17" s="29">
+        <v>110</v>
+      </c>
+      <c r="S17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="29">
+        <v>29034</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.90019533066691471</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="29">
+        <v>24</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1</v>
+      </c>
+      <c r="L18" s="29">
+        <v>26</v>
+      </c>
+      <c r="M18" s="10">
+        <v>1</v>
+      </c>
+      <c r="N18" s="29">
+        <v>32</v>
+      </c>
+      <c r="O18" s="10">
+        <v>1</v>
+      </c>
+      <c r="P18" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>1</v>
+      </c>
+      <c r="R18" s="29">
+        <v>4</v>
+      </c>
+      <c r="S18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="29">
+        <v>27415</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.87663479678956291</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="29">
+        <v>110</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="29">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="10"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="29">
+        <v>50660</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.94025501586889138</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="29">
+        <v>35984</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.90316751167110088</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="29">
+        <v>110</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="29">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6738B7E3-4B05-4CFE-949E-060308EA4D09}">
+  <dimension ref="A1:U36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="G3" s="8"/>
+      <c r="I3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3">
+        <v>2.6</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="29">
+        <v>31231</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.44261621315192745</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="29">
+        <v>31499</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.44641439909297054</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="29">
+        <v>41307</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.29270833333333335</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="29">
+        <v>41445</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.29368622448979592</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="29">
+        <v>124</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.57407407407407407</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="29">
+        <v>124</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.57407407407407407</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="29">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="29">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="G8" s="8"/>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="G9" s="8"/>
+      <c r="I9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9">
+        <f>SUM(J3:J8)</f>
+        <v>189.4</v>
+      </c>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="29">
+        <v>45540</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.64540816326530615</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="29">
+        <v>46206</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.65484693877551026</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="I10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="34">
+        <f>J9/70.56</f>
+        <v>2.6842403628117912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="29">
+        <v>53522</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.379265873015873</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="29">
+        <v>53673</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.38033588435374149</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="29">
+        <v>131.5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.60879629629629628</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="29">
+        <v>131.5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.60879629629629628</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="29">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="29">
+        <v>26</v>
+      </c>
+      <c r="F13" s="8">
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="G14" s="8"/>
+      <c r="M14" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="N14" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="O14" s="29">
+        <v>28</v>
+      </c>
+      <c r="P14" s="29">
+        <v>42.9</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="R14" s="29">
+        <v>28.8</v>
+      </c>
+      <c r="S14" s="29">
+        <v>50.4</v>
+      </c>
+      <c r="T14" s="29">
+        <v>189.4</v>
+      </c>
+      <c r="U14" s="40">
+        <v>2.6840000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="29">
+        <v>39370</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.55796485260770978</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="29">
+        <v>40079</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.56801303854875285</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="29">
+        <v>49933</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.35383361678004538</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="29">
+        <v>50075</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.35483985260770973</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="29">
+        <v>154.5</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="29">
+        <v>154.5</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="29">
+        <v>32</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="29">
+        <v>32</v>
+      </c>
+      <c r="F19" s="8">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="29">
+        <v>31507</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="29">
+        <v>32253</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.45710034013605444</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="29">
+        <v>31113</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.22047193877551022</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="29">
+        <v>31273</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.22160572562358277</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="29">
+        <v>110</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="29">
+        <v>110</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="29">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="29">
+        <v>4</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="29">
+        <v>53049</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.75182823129251697</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="29">
+        <v>53879</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.76359126984126979</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29">
+        <v>39680</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.28117913832199548</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="29">
+        <v>39842</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.28232709750566892</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="29">
+        <v>110</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="29">
+        <v>110</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="29">
+        <v>4</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="29">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E8CAC6-3253-4E8E-8428-FB47F6D22266}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="29">
+        <v>632.91</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1580</v>
+      </c>
+      <c r="D5" s="29">
+        <v>2.39</v>
+      </c>
+      <c r="E5" s="29">
+        <v>417851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29">
+        <v>615.38</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1625</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.38</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2645137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="29">
+        <v>205.68</v>
+      </c>
+      <c r="C7" s="29">
+        <v>4862</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.22</v>
+      </c>
+      <c r="E7" s="29">
+        <v>4571086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="26">
+        <v>118884.86</v>
+      </c>
+      <c r="C8" s="29">
+        <v>8.41</v>
+      </c>
+      <c r="D8" s="29">
+        <v>55.92</v>
+      </c>
+      <c r="E8" s="29">
+        <v>17883.099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="28">
+        <v>118887.69</v>
+      </c>
+      <c r="C9" s="29">
+        <v>8.41</v>
+      </c>
+      <c r="D9" s="29">
+        <v>7.76</v>
+      </c>
+      <c r="E9" s="29">
+        <v>128907.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="29">
+        <v>615.76</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1624</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.38</v>
+      </c>
+      <c r="E11" s="29">
+        <v>2647905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="29">
+        <v>632.80999999999995</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1580</v>
+      </c>
+      <c r="D12" s="29">
+        <v>2.39</v>
+      </c>
+      <c r="E12" s="29">
+        <v>417870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="29">
+        <v>615.24</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1625</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.38</v>
+      </c>
+      <c r="E13" s="29">
+        <v>2644840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="29">
+        <v>205.64</v>
+      </c>
+      <c r="C14" s="29">
+        <v>4863</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0.22</v>
+      </c>
+      <c r="E14" s="29">
+        <v>4572012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="26">
+        <v>118885.11</v>
+      </c>
+      <c r="C15" s="29">
+        <v>8.41</v>
+      </c>
+      <c r="D15" s="29">
+        <v>55.8</v>
+      </c>
+      <c r="E15" s="29">
+        <v>17921.099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="28">
+        <v>118887.05</v>
+      </c>
+      <c r="C16" s="29">
+        <v>8.41</v>
+      </c>
+      <c r="D16" s="29">
+        <v>7.77</v>
+      </c>
+      <c r="E16" s="29">
+        <v>128700.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BEB1A6-9A2D-49C4-95DB-E5F6ED401FC5}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>0.23940579652800001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>0.33725983205499999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>0.23976935625099999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>-9.7490475803899995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>0.33749884674199998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>0.239964883327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>-9.7533963414800001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>0.33786964173200001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>0.24014578104000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>-9.7723860691999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>0.35142725229299998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>0.24016671710500001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>-0.11126053518700001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>0.33785920536399999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>0.24036838531499999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>-9.7490820049000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.33726</v>
+      </c>
+      <c r="C26">
+        <v>0.23976900000000001</v>
+      </c>
+      <c r="D26">
+        <f>B26-C26</f>
+        <v>9.7490999999999994E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0.33749899999999999</v>
+      </c>
+      <c r="C27">
+        <v>0.239956</v>
+      </c>
+      <c r="D27" s="29">
+        <f t="shared" ref="D27:D30" si="0">B27-C27</f>
+        <v>9.7542999999999991E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.33787</v>
+      </c>
+      <c r="C28">
+        <v>0.210146</v>
+      </c>
+      <c r="D28" s="29">
+        <f t="shared" si="0"/>
+        <v>0.127724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>0.35142699999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.24016699999999999</v>
+      </c>
+      <c r="D29" s="29">
+        <f t="shared" si="0"/>
+        <v>0.11126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>0.33785900000000002</v>
+      </c>
+      <c r="C30">
+        <v>0.240368</v>
+      </c>
+      <c r="D30" s="29">
+        <f t="shared" si="0"/>
+        <v>9.7491000000000022E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>